--- a/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989907556634362</v>
+        <v>0.9911690852160535</v>
       </c>
       <c r="D2">
-        <v>1.017426176186088</v>
+        <v>1.010220000534777</v>
       </c>
       <c r="E2">
-        <v>1.004820509489849</v>
+        <v>0.9985183733463578</v>
       </c>
       <c r="F2">
-        <v>1.014971109987949</v>
+        <v>0.9984991585210981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045203680242669</v>
+        <v>1.037892806827839</v>
       </c>
       <c r="J2">
-        <v>1.021201695016035</v>
+        <v>1.013617174282813</v>
       </c>
       <c r="K2">
-        <v>1.028647959829436</v>
+        <v>1.021538767271751</v>
       </c>
       <c r="L2">
-        <v>1.016213093005607</v>
+        <v>1.009998388247787</v>
       </c>
       <c r="M2">
-        <v>1.026225740371646</v>
+        <v>1.00997944212595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006288155942214</v>
+        <v>0.9975385038773437</v>
       </c>
       <c r="D3">
-        <v>1.022961251030162</v>
+        <v>1.014998810895108</v>
       </c>
       <c r="E3">
-        <v>1.010920587241587</v>
+        <v>1.003750589574692</v>
       </c>
       <c r="F3">
-        <v>1.021860832565621</v>
+        <v>1.005329285394469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047909750209058</v>
+        <v>1.039819222978237</v>
       </c>
       <c r="J3">
-        <v>1.0266088550607</v>
+        <v>1.018096497425675</v>
       </c>
       <c r="K3">
-        <v>1.033308531712127</v>
+        <v>1.025443309706591</v>
       </c>
       <c r="L3">
-        <v>1.021415618257872</v>
+        <v>1.014335704790005</v>
       </c>
       <c r="M3">
-        <v>1.032221436827762</v>
+        <v>1.01589442814721</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010868583546941</v>
+        <v>1.001548285125042</v>
       </c>
       <c r="D4">
-        <v>1.026437637329824</v>
+        <v>1.018009631264827</v>
       </c>
       <c r="E4">
-        <v>1.014754813405333</v>
+        <v>1.00705076868702</v>
       </c>
       <c r="F4">
-        <v>1.026191821612161</v>
+        <v>1.009632355386803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049594290901076</v>
+        <v>1.041020336960259</v>
       </c>
       <c r="J4">
-        <v>1.029998297498848</v>
+        <v>1.020912468360977</v>
       </c>
       <c r="K4">
-        <v>1.03622712002809</v>
+        <v>1.0278954484726</v>
       </c>
       <c r="L4">
-        <v>1.024678363587991</v>
+        <v>1.017064835508821</v>
       </c>
       <c r="M4">
-        <v>1.035984086437149</v>
+        <v>1.019615900000743</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012762197245207</v>
+        <v>1.003208594239981</v>
       </c>
       <c r="D5">
-        <v>1.027875228506627</v>
+        <v>1.019256785643776</v>
       </c>
       <c r="E5">
-        <v>1.016341124427849</v>
+        <v>1.008418692697085</v>
       </c>
       <c r="F5">
-        <v>1.027983783963728</v>
+        <v>1.011414902817289</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050287279555356</v>
+        <v>1.041514831760745</v>
       </c>
       <c r="J5">
-        <v>1.031398390933821</v>
+        <v>1.022077467609618</v>
       </c>
       <c r="K5">
-        <v>1.037432006329427</v>
+        <v>1.028909306938176</v>
       </c>
       <c r="L5">
-        <v>1.026026489119695</v>
+        <v>1.018194483710368</v>
       </c>
       <c r="M5">
-        <v>1.037539368408106</v>
+        <v>1.021156289660157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013078318485093</v>
+        <v>1.003485914616362</v>
       </c>
       <c r="D6">
-        <v>1.028115241751614</v>
+        <v>1.019465122664821</v>
       </c>
       <c r="E6">
-        <v>1.016606011630497</v>
+        <v>1.008647258464417</v>
       </c>
       <c r="F6">
-        <v>1.028283019757301</v>
+        <v>1.011712687953521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050402764364108</v>
+        <v>1.041597258167789</v>
       </c>
       <c r="J6">
-        <v>1.031632054070099</v>
+        <v>1.022271996682377</v>
       </c>
       <c r="K6">
-        <v>1.037633048771894</v>
+        <v>1.029078561808605</v>
       </c>
       <c r="L6">
-        <v>1.026251500594735</v>
+        <v>1.018383143578912</v>
       </c>
       <c r="M6">
-        <v>1.037798991426597</v>
+        <v>1.02141354798637</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010894009476228</v>
+        <v>1.00157056838813</v>
       </c>
       <c r="D7">
-        <v>1.026456938693118</v>
+        <v>1.01802636773546</v>
       </c>
       <c r="E7">
-        <v>1.014776108536275</v>
+        <v>1.007069122222449</v>
       </c>
       <c r="F7">
-        <v>1.026215876928342</v>
+        <v>1.009656276052194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049603609435518</v>
+        <v>1.041026984969953</v>
       </c>
       <c r="J7">
-        <v>1.030017101469116</v>
+        <v>1.020928107999067</v>
       </c>
       <c r="K7">
-        <v>1.036243305104289</v>
+        <v>1.027909061586348</v>
       </c>
       <c r="L7">
-        <v>1.024696468161248</v>
+        <v>1.01707999830541</v>
       </c>
       <c r="M7">
-        <v>1.036004970608679</v>
+        <v>1.019636575953699</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001487418425281</v>
+        <v>0.9933456113925259</v>
       </c>
       <c r="D8">
-        <v>1.019319374244248</v>
+        <v>1.011852430926004</v>
       </c>
       <c r="E8">
-        <v>1.006906346983877</v>
+        <v>1.000304922153295</v>
       </c>
       <c r="F8">
-        <v>1.017326881618254</v>
+        <v>1.000832440179944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046132424752385</v>
+        <v>1.038553510687126</v>
       </c>
       <c r="J8">
-        <v>1.023052561644918</v>
+        <v>1.01514862015519</v>
       </c>
       <c r="K8">
-        <v>1.030243859897103</v>
+        <v>1.022874211717082</v>
       </c>
       <c r="L8">
-        <v>1.017993573081141</v>
+        <v>1.011480764658067</v>
       </c>
       <c r="M8">
-        <v>1.028277154796508</v>
+        <v>1.012001147329265</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9837349423440445</v>
+        <v>0.9779316955711143</v>
       </c>
       <c r="D9">
-        <v>1.005872034932558</v>
+        <v>1.000306160106876</v>
       </c>
       <c r="E9">
-        <v>0.9921023930258236</v>
+        <v>0.9876834391046204</v>
       </c>
       <c r="F9">
-        <v>1.000607781455484</v>
+        <v>0.9843216462850787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039470859976443</v>
+        <v>1.033826701096262</v>
       </c>
       <c r="J9">
-        <v>1.009875431551903</v>
+        <v>1.004288554923568</v>
       </c>
       <c r="K9">
-        <v>1.018870555493686</v>
+        <v>1.013394272028987</v>
       </c>
       <c r="L9">
-        <v>1.005324916292783</v>
+        <v>1.00097955552514</v>
       </c>
       <c r="M9">
-        <v>1.013691005520053</v>
+        <v>0.9976743209116332</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9709615063093833</v>
+        <v>0.9669355576636739</v>
       </c>
       <c r="D10">
-        <v>0.9962207726490658</v>
+        <v>0.9920927024226724</v>
       </c>
       <c r="E10">
-        <v>0.9814910460956845</v>
+        <v>0.9787229698229276</v>
       </c>
       <c r="F10">
-        <v>0.9886230735095931</v>
+        <v>0.9725589710138383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034607074129894</v>
+        <v>1.030396208895944</v>
       </c>
       <c r="J10">
-        <v>1.000376569291908</v>
+        <v>0.9965253460597777</v>
       </c>
       <c r="K10">
-        <v>1.010658599125415</v>
+        <v>1.006606208477479</v>
       </c>
       <c r="L10">
-        <v>0.9962027250148732</v>
+        <v>0.9934873162623674</v>
       </c>
       <c r="M10">
-        <v>1.003200825705205</v>
+        <v>0.9874420104789704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9651691450652419</v>
+        <v>0.9619772698945653</v>
       </c>
       <c r="D11">
-        <v>0.9918523183006575</v>
+        <v>0.9883965576259153</v>
       </c>
       <c r="E11">
-        <v>0.9766907528010104</v>
+        <v>0.9746945001945484</v>
       </c>
       <c r="F11">
-        <v>0.9832008378860008</v>
+        <v>0.9672584726592</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032385950943283</v>
+        <v>1.028836402918478</v>
       </c>
       <c r="J11">
-        <v>0.9960663130217471</v>
+        <v>0.9930220863250013</v>
       </c>
       <c r="K11">
-        <v>1.0069295412498</v>
+        <v>1.003540666364497</v>
       </c>
       <c r="L11">
-        <v>0.9920660542918914</v>
+        <v>0.9901099580133618</v>
       </c>
       <c r="M11">
-        <v>0.9984466711983756</v>
+        <v>0.9828254376831775</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9629744984152088</v>
+        <v>0.9601034393374233</v>
       </c>
       <c r="D12">
-        <v>0.9901986063779684</v>
+        <v>0.9870009965421572</v>
       </c>
       <c r="E12">
-        <v>0.9748739273141301</v>
+        <v>0.9731740027325292</v>
       </c>
       <c r="F12">
-        <v>0.9811484671847556</v>
+        <v>0.9652557934562781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031542179625805</v>
+        <v>1.028245061435425</v>
       </c>
       <c r="J12">
-        <v>0.9944329235410146</v>
+        <v>0.9916978209341186</v>
       </c>
       <c r="K12">
-        <v>1.00551602593122</v>
+        <v>1.002381547458924</v>
       </c>
       <c r="L12">
-        <v>0.9904988715457147</v>
+        <v>0.9888338474426676</v>
       </c>
       <c r="M12">
-        <v>0.9966459695064048</v>
+        <v>0.9810803469479971</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9634472755147423</v>
+        <v>0.960506878721583</v>
       </c>
       <c r="D13">
-        <v>0.9905547851888178</v>
+        <v>0.9873014028163128</v>
       </c>
       <c r="E13">
-        <v>0.9752652222010759</v>
+        <v>0.9735012788384624</v>
       </c>
       <c r="F13">
-        <v>0.9815904998028996</v>
+        <v>0.9656869532098488</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031724045338307</v>
+        <v>1.028372460997965</v>
       </c>
       <c r="J13">
-        <v>0.9947848039344604</v>
+        <v>0.9919829505947931</v>
       </c>
       <c r="K13">
-        <v>1.005820555082828</v>
+        <v>1.002631132792041</v>
       </c>
       <c r="L13">
-        <v>0.9908364693975641</v>
+        <v>0.9891085830842365</v>
       </c>
       <c r="M13">
-        <v>0.9970338528077219</v>
+        <v>0.9814560864045707</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9649886382766508</v>
+        <v>0.9618230489645248</v>
       </c>
       <c r="D14">
-        <v>0.991716272225733</v>
+        <v>0.9882816724286068</v>
       </c>
       <c r="E14">
-        <v>0.9765412807847794</v>
+        <v>0.9745693192573227</v>
       </c>
       <c r="F14">
-        <v>0.9830319907071078</v>
+        <v>0.9670936376685759</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032316596107737</v>
+        <v>1.028787771287693</v>
       </c>
       <c r="J14">
-        <v>0.9959319740131819</v>
+        <v>0.9929131018488692</v>
       </c>
       <c r="K14">
-        <v>1.006813293232562</v>
+        <v>1.003445279300639</v>
       </c>
       <c r="L14">
-        <v>0.9919371517049054</v>
+        <v>0.9900049250525107</v>
       </c>
       <c r="M14">
-        <v>0.9982985530721674</v>
+        <v>0.9826818204620879</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9659324872162786</v>
+        <v>0.9626296507140266</v>
       </c>
       <c r="D15">
-        <v>0.9924277009745792</v>
+        <v>0.9888825947688664</v>
       </c>
       <c r="E15">
-        <v>0.9773229325419973</v>
+        <v>0.9752241165908569</v>
       </c>
       <c r="F15">
-        <v>0.9839149568471108</v>
+        <v>0.9679557720230312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032679155077423</v>
+        <v>1.02904204783411</v>
       </c>
       <c r="J15">
-        <v>0.9966344059613166</v>
+        <v>0.9934830969062332</v>
       </c>
       <c r="K15">
-        <v>1.007421116070382</v>
+        <v>1.003944146522755</v>
       </c>
       <c r="L15">
-        <v>0.9926111751403602</v>
+        <v>0.9905542764624157</v>
       </c>
       <c r="M15">
-        <v>0.9990730701339139</v>
+        <v>0.983432946741532</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.971340103376252</v>
+        <v>0.9672602659832708</v>
       </c>
       <c r="D16">
-        <v>0.9965064863783906</v>
+        <v>0.9923349228499264</v>
       </c>
       <c r="E16">
-        <v>0.9818050562920498</v>
+        <v>0.9789870451945483</v>
       </c>
       <c r="F16">
-        <v>0.9889777499496598</v>
+        <v>0.9729061581875226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034751938082163</v>
+        <v>1.030498095931726</v>
       </c>
       <c r="J16">
-        <v>1.000658246280839</v>
+        <v>0.9967547184770467</v>
       </c>
       <c r="K16">
-        <v>1.010902240918821</v>
+        <v>1.006806876378037</v>
       </c>
       <c r="L16">
-        <v>0.9964731152699707</v>
+        <v>0.9937085219866661</v>
       </c>
       <c r="M16">
-        <v>1.003511635300844</v>
+        <v>0.9877442850068879</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9746596275848194</v>
+        <v>0.9701105245904281</v>
       </c>
       <c r="D17">
-        <v>0.9990125495297322</v>
+        <v>0.9944619661681008</v>
       </c>
       <c r="E17">
-        <v>0.9845596166871855</v>
+        <v>0.981306436619419</v>
       </c>
       <c r="F17">
-        <v>0.9920889616471905</v>
+        <v>0.9759541180437108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036020360207149</v>
+        <v>1.03139099533365</v>
       </c>
       <c r="J17">
-        <v>1.003127676033548</v>
+        <v>0.9987678285998659</v>
       </c>
       <c r="K17">
-        <v>1.013037914509638</v>
+        <v>1.008567798985904</v>
       </c>
       <c r="L17">
-        <v>0.9988438985424172</v>
+        <v>0.9956503677456903</v>
       </c>
       <c r="M17">
-        <v>1.006237136574879</v>
+        <v>0.9903973169970302</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765709153061751</v>
+        <v>0.971754220322815</v>
       </c>
       <c r="D18">
-        <v>1.000456213906522</v>
+        <v>0.9956892809023637</v>
       </c>
       <c r="E18">
-        <v>0.9861466917402193</v>
+        <v>0.9826451015760664</v>
       </c>
       <c r="F18">
-        <v>0.9938814664506799</v>
+        <v>0.9777121503201935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036749214670898</v>
+        <v>1.031904689330335</v>
       </c>
       <c r="J18">
-        <v>1.004549230322157</v>
+        <v>0.9999284907183604</v>
       </c>
       <c r="K18">
-        <v>1.014267077148147</v>
+        <v>1.00958284015856</v>
       </c>
       <c r="L18">
-        <v>1.000208914122956</v>
+        <v>0.9967702819286045</v>
       </c>
       <c r="M18">
-        <v>1.007806656210919</v>
+        <v>0.9919270205612567</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9772184940119231</v>
+        <v>0.9723115592148526</v>
       </c>
       <c r="D19">
-        <v>1.000945473592001</v>
+        <v>0.9961055461088528</v>
       </c>
       <c r="E19">
-        <v>0.9866845987713456</v>
+        <v>0.9830991960041162</v>
       </c>
       <c r="F19">
-        <v>0.9944889910703413</v>
+        <v>0.9783083142868942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036995911583939</v>
+        <v>1.032078660618571</v>
       </c>
       <c r="J19">
-        <v>1.005030828562035</v>
+        <v>1.000321996696501</v>
       </c>
       <c r="K19">
-        <v>1.014683450943464</v>
+        <v>1.009926936804232</v>
       </c>
       <c r="L19">
-        <v>1.000671399425035</v>
+        <v>0.9971500299959678</v>
       </c>
       <c r="M19">
-        <v>1.008338476334978</v>
+        <v>0.9924456639524704</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.974306079250232</v>
+        <v>0.969806681922715</v>
       </c>
       <c r="D20">
-        <v>0.9987455606009855</v>
+        <v>0.9942351472278713</v>
       </c>
       <c r="E20">
-        <v>0.9842661269380569</v>
+        <v>0.9810590688891624</v>
       </c>
       <c r="F20">
-        <v>0.9917574783402719</v>
+        <v>0.9756291664836171</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035885417690332</v>
+        <v>1.03129593743725</v>
       </c>
       <c r="J20">
-        <v>1.002864695150817</v>
+        <v>0.9985532542781195</v>
       </c>
       <c r="K20">
-        <v>1.01281050373587</v>
+        <v>1.008380127748467</v>
       </c>
       <c r="L20">
-        <v>0.9985913970015918</v>
+        <v>0.9954433539683688</v>
       </c>
       <c r="M20">
-        <v>1.005946827676202</v>
+        <v>0.990114525482882</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9645359687195162</v>
+        <v>0.9614363775182776</v>
       </c>
       <c r="D21">
-        <v>0.9913751237950282</v>
+        <v>0.9879936469829167</v>
       </c>
       <c r="E21">
-        <v>0.9761664711926362</v>
+        <v>0.9742554902146286</v>
       </c>
       <c r="F21">
-        <v>0.9826085941803182</v>
+        <v>0.9666803616247421</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032142634879954</v>
+        <v>1.028665809670609</v>
       </c>
       <c r="J21">
-        <v>0.995595078415709</v>
+        <v>0.9926398450293163</v>
       </c>
       <c r="K21">
-        <v>1.006521760397416</v>
+        <v>1.003206110337254</v>
       </c>
       <c r="L21">
-        <v>0.9916138965109027</v>
+        <v>0.9897415849894702</v>
       </c>
       <c r="M21">
-        <v>0.9979271167787692</v>
+        <v>0.9823217288068635</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9581414148021578</v>
+        <v>0.9559864323277733</v>
       </c>
       <c r="D22">
-        <v>0.9865596931030637</v>
+        <v>0.9839373641208849</v>
       </c>
       <c r="E22">
-        <v>0.9708767030586231</v>
+        <v>0.9698370540362693</v>
       </c>
       <c r="F22">
-        <v>0.9766326769535342</v>
+        <v>0.9608565307246814</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029680061746552</v>
+        <v>1.026942489708588</v>
       </c>
       <c r="J22">
-        <v>0.9908354680469412</v>
+        <v>0.988787793992291</v>
       </c>
       <c r="K22">
-        <v>1.002402191296965</v>
+        <v>0.9998338849822467</v>
       </c>
       <c r="L22">
-        <v>0.9870480498996286</v>
+        <v>0.986030699278492</v>
       </c>
       <c r="M22">
-        <v>0.9926817062378164</v>
+        <v>0.9772454618718155</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9615565698324513</v>
+        <v>0.9588942172429618</v>
       </c>
       <c r="D23">
-        <v>0.9891306021191483</v>
+        <v>0.9861007957008691</v>
       </c>
       <c r="E23">
-        <v>0.9737006765479198</v>
+        <v>0.9721933596700821</v>
       </c>
       <c r="F23">
-        <v>0.9798230590807191</v>
+        <v>0.9639635527177561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030996422033907</v>
+        <v>1.027862942984038</v>
       </c>
       <c r="J23">
-        <v>0.9933775501802508</v>
+        <v>0.990843167767553</v>
       </c>
       <c r="K23">
-        <v>1.004602618875028</v>
+        <v>1.001633392252978</v>
       </c>
       <c r="L23">
-        <v>0.9894863994904899</v>
+        <v>0.9880104335647292</v>
       </c>
       <c r="M23">
-        <v>0.9954827487339712</v>
+        <v>0.9799540910299006</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9744659092955491</v>
+        <v>0.9699440332930559</v>
       </c>
       <c r="D24">
-        <v>0.9988662570838229</v>
+        <v>0.9943376780872584</v>
       </c>
       <c r="E24">
-        <v>0.9843988027187525</v>
+        <v>0.9811708874557474</v>
       </c>
       <c r="F24">
-        <v>0.9919073297738024</v>
+        <v>0.9757760590659778</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035946426273892</v>
+        <v>1.03133891195088</v>
       </c>
       <c r="J24">
-        <v>1.002983582855233</v>
+        <v>0.9986502529281917</v>
       </c>
       <c r="K24">
-        <v>1.012913311813982</v>
+        <v>1.008464965509551</v>
       </c>
       <c r="L24">
-        <v>0.9987055464632668</v>
+        <v>0.9955369338093805</v>
       </c>
       <c r="M24">
-        <v>1.006078068034554</v>
+        <v>0.9902423615202889</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9884779605491205</v>
+        <v>0.982035450034454</v>
       </c>
       <c r="D25">
-        <v>1.009461340358479</v>
+        <v>1.003376735053469</v>
       </c>
       <c r="E25">
-        <v>0.9960513415839896</v>
+        <v>0.9910367806433458</v>
       </c>
       <c r="F25">
-        <v>1.005067539438262</v>
+        <v>0.9887146009885592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041263021301009</v>
+        <v>1.03509540382238</v>
       </c>
       <c r="J25">
-        <v>1.01339940795003</v>
+        <v>1.007182895653997</v>
       </c>
       <c r="K25">
-        <v>1.021914535456324</v>
+        <v>1.015922856746885</v>
       </c>
       <c r="L25">
-        <v>1.008711266224996</v>
+        <v>1.003775851095999</v>
       </c>
       <c r="M25">
-        <v>1.017587694449933</v>
+        <v>1.001490671511233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9911690852160535</v>
+        <v>0.9941076804963552</v>
       </c>
       <c r="D2">
-        <v>1.010220000534777</v>
+        <v>1.012221474360132</v>
       </c>
       <c r="E2">
-        <v>0.9985183733463578</v>
+        <v>1.007448547849611</v>
       </c>
       <c r="F2">
-        <v>0.9984991585210981</v>
+        <v>1.009570765753634</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037892806827839</v>
+        <v>1.039780783513007</v>
       </c>
       <c r="J2">
-        <v>1.013617174282813</v>
+        <v>1.016466069577441</v>
       </c>
       <c r="K2">
-        <v>1.021538767271751</v>
+        <v>1.023513130432437</v>
       </c>
       <c r="L2">
-        <v>1.009998388247787</v>
+        <v>1.018805078828954</v>
       </c>
       <c r="M2">
-        <v>1.00997944212595</v>
+        <v>1.020898355660289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9975385038773437</v>
+        <v>0.9987421006221822</v>
       </c>
       <c r="D3">
-        <v>1.014998810895108</v>
+        <v>1.015394689531714</v>
       </c>
       <c r="E3">
-        <v>1.003750589574692</v>
+        <v>1.011461087875149</v>
       </c>
       <c r="F3">
-        <v>1.005329285394469</v>
+        <v>1.014255916627774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039819222978237</v>
+        <v>1.040651020648819</v>
       </c>
       <c r="J3">
-        <v>1.018096497425675</v>
+        <v>1.019267116081219</v>
       </c>
       <c r="K3">
-        <v>1.025443309706591</v>
+        <v>1.025834310011245</v>
       </c>
       <c r="L3">
-        <v>1.014335704790005</v>
+        <v>1.021949392509923</v>
       </c>
       <c r="M3">
-        <v>1.01589442814721</v>
+        <v>1.024709582768066</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001548285125042</v>
+        <v>1.001679065707141</v>
       </c>
       <c r="D4">
-        <v>1.018009631264827</v>
+        <v>1.017407467309035</v>
       </c>
       <c r="E4">
-        <v>1.00705076868702</v>
+        <v>1.014010200077689</v>
       </c>
       <c r="F4">
-        <v>1.009632355386803</v>
+        <v>1.017232858323543</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041020336960259</v>
+        <v>1.041191310740253</v>
       </c>
       <c r="J4">
-        <v>1.020912468360977</v>
+        <v>1.021039918115327</v>
       </c>
       <c r="K4">
-        <v>1.0278954484726</v>
+        <v>1.02730024289124</v>
       </c>
       <c r="L4">
-        <v>1.017064835508821</v>
+        <v>1.023942424636005</v>
       </c>
       <c r="M4">
-        <v>1.019615900000743</v>
+        <v>1.027127653523558</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003208594239981</v>
+        <v>1.00289950568949</v>
       </c>
       <c r="D5">
-        <v>1.019256785643776</v>
+        <v>1.018244234801862</v>
       </c>
       <c r="E5">
-        <v>1.008418692697085</v>
+        <v>1.015070930031039</v>
       </c>
       <c r="F5">
-        <v>1.011414902817289</v>
+        <v>1.018471764766083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041514831760745</v>
+        <v>1.041413090993855</v>
       </c>
       <c r="J5">
-        <v>1.022077467609618</v>
+        <v>1.021776006696737</v>
       </c>
       <c r="K5">
-        <v>1.028909306938176</v>
+        <v>1.027908135693188</v>
       </c>
       <c r="L5">
-        <v>1.018194483710368</v>
+        <v>1.024770675530771</v>
       </c>
       <c r="M5">
-        <v>1.021156289660157</v>
+        <v>1.028133106124383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003485914616362</v>
+        <v>1.003103601854526</v>
       </c>
       <c r="D6">
-        <v>1.019465122664821</v>
+        <v>1.018384188516561</v>
       </c>
       <c r="E6">
-        <v>1.008647258464417</v>
+        <v>1.015248402345839</v>
       </c>
       <c r="F6">
-        <v>1.011712687953521</v>
+        <v>1.018679057458386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041597258167789</v>
+        <v>1.041450017600947</v>
       </c>
       <c r="J6">
-        <v>1.022271996682377</v>
+        <v>1.021899068250744</v>
       </c>
       <c r="K6">
-        <v>1.029078561808605</v>
+        <v>1.028009718577353</v>
       </c>
       <c r="L6">
-        <v>1.018383143578912</v>
+        <v>1.024909187599228</v>
       </c>
       <c r="M6">
-        <v>1.02141354798637</v>
+        <v>1.02830128609463</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00157056838813</v>
+        <v>1.001695428625428</v>
       </c>
       <c r="D7">
-        <v>1.01802636773546</v>
+        <v>1.017418684811883</v>
       </c>
       <c r="E7">
-        <v>1.007069122222449</v>
+        <v>1.014024415983533</v>
       </c>
       <c r="F7">
-        <v>1.009656276052194</v>
+        <v>1.017249461533324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041026984969953</v>
+        <v>1.041194295097464</v>
       </c>
       <c r="J7">
-        <v>1.020928107999067</v>
+        <v>1.021049789522495</v>
       </c>
       <c r="K7">
-        <v>1.027909061586348</v>
+        <v>1.027308398224877</v>
       </c>
       <c r="L7">
-        <v>1.01707999830541</v>
+        <v>1.023953529142525</v>
       </c>
       <c r="M7">
-        <v>1.019636575953699</v>
+        <v>1.027141131549266</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9933456113925259</v>
+        <v>0.9956870366967149</v>
       </c>
       <c r="D8">
-        <v>1.011852430926004</v>
+        <v>1.013302444837552</v>
       </c>
       <c r="E8">
-        <v>1.000304922153295</v>
+        <v>1.008814638932739</v>
       </c>
       <c r="F8">
-        <v>1.000832440179944</v>
+        <v>1.011165753942055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038553510687126</v>
+        <v>1.040079671559367</v>
       </c>
       <c r="J8">
-        <v>1.01514862015519</v>
+        <v>1.017421092903821</v>
       </c>
       <c r="K8">
-        <v>1.022874211717082</v>
+        <v>1.02430519119476</v>
       </c>
       <c r="L8">
-        <v>1.011480764658067</v>
+        <v>1.019876519601706</v>
       </c>
       <c r="M8">
-        <v>1.012001147329265</v>
+        <v>1.022196572672935</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9779316955711143</v>
+        <v>0.984600385247118</v>
       </c>
       <c r="D9">
-        <v>1.000306160106876</v>
+        <v>1.005724979380421</v>
       </c>
       <c r="E9">
-        <v>0.9876834391046204</v>
+        <v>0.9992533204474319</v>
       </c>
       <c r="F9">
-        <v>0.9843216462850787</v>
+        <v>1.000003661113987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033826701096262</v>
+        <v>1.037935910698301</v>
       </c>
       <c r="J9">
-        <v>1.004288554923568</v>
+        <v>1.010708914105988</v>
       </c>
       <c r="K9">
-        <v>1.013394272028987</v>
+        <v>1.018725850676707</v>
       </c>
       <c r="L9">
-        <v>1.00097955552514</v>
+        <v>1.012358523633915</v>
       </c>
       <c r="M9">
-        <v>0.9976743209116332</v>
+        <v>1.013096678919356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9669355576636739</v>
+        <v>0.9768353906133134</v>
       </c>
       <c r="D10">
-        <v>0.9920927024226724</v>
+        <v>1.000434725860893</v>
       </c>
       <c r="E10">
-        <v>0.9787229698229276</v>
+        <v>0.9925946568402321</v>
       </c>
       <c r="F10">
-        <v>0.9725589710138383</v>
+        <v>0.9922307189352326</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030396208895944</v>
+        <v>1.036378556257239</v>
       </c>
       <c r="J10">
-        <v>0.9965253460597777</v>
+        <v>1.005999206643556</v>
       </c>
       <c r="K10">
-        <v>1.006606208477479</v>
+        <v>1.014796135631695</v>
       </c>
       <c r="L10">
-        <v>0.9934873162623674</v>
+        <v>1.007098916802669</v>
       </c>
       <c r="M10">
-        <v>0.9874420104789704</v>
+        <v>1.006741681485466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9619772698945653</v>
+        <v>0.9733750529539047</v>
       </c>
       <c r="D11">
-        <v>0.9883965576259153</v>
+        <v>0.9980823862708876</v>
       </c>
       <c r="E11">
-        <v>0.9746945001945484</v>
+        <v>0.9896370657377521</v>
       </c>
       <c r="F11">
-        <v>0.9672584726592</v>
+        <v>0.9887779469788976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028836402918478</v>
+        <v>1.03567200127388</v>
       </c>
       <c r="J11">
-        <v>0.9930220863250013</v>
+        <v>1.003898996547334</v>
       </c>
       <c r="K11">
-        <v>1.003540666364497</v>
+        <v>1.013040556812302</v>
       </c>
       <c r="L11">
-        <v>0.9901099580133618</v>
+        <v>1.004757094165247</v>
       </c>
       <c r="M11">
-        <v>0.9828254376831775</v>
+        <v>1.003914643887198</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9601034393374233</v>
+        <v>0.9720741373149075</v>
       </c>
       <c r="D12">
-        <v>0.9870009965421572</v>
+        <v>0.9971989034387518</v>
       </c>
       <c r="E12">
-        <v>0.9731740027325292</v>
+        <v>0.9885266843617642</v>
       </c>
       <c r="F12">
-        <v>0.9652557934562781</v>
+        <v>0.9874815864527746</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028245061435425</v>
+        <v>1.035404549515422</v>
       </c>
       <c r="J12">
-        <v>0.9916978209341186</v>
+        <v>1.003109265374472</v>
       </c>
       <c r="K12">
-        <v>1.002381547458924</v>
+        <v>1.012379965517855</v>
       </c>
       <c r="L12">
-        <v>0.9888338474426676</v>
+        <v>1.003877046253155</v>
       </c>
       <c r="M12">
-        <v>0.9810803469479971</v>
+        <v>1.00285261463782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.960506878721583</v>
+        <v>0.9723539082623349</v>
       </c>
       <c r="D13">
-        <v>0.9873014028163128</v>
+        <v>0.9973888610709267</v>
       </c>
       <c r="E13">
-        <v>0.9735012788384624</v>
+        <v>0.988765409548215</v>
       </c>
       <c r="F13">
-        <v>0.9656869532098488</v>
+        <v>0.9877602997958304</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028372460997965</v>
+        <v>1.035462148154987</v>
       </c>
       <c r="J13">
-        <v>0.9919829505947931</v>
+        <v>1.003279108684144</v>
       </c>
       <c r="K13">
-        <v>1.002631132792041</v>
+        <v>1.012522055242584</v>
       </c>
       <c r="L13">
-        <v>0.9891085830842365</v>
+        <v>1.004066289406105</v>
       </c>
       <c r="M13">
-        <v>0.9814560864045707</v>
+        <v>1.003080974537266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9618230489645248</v>
+        <v>0.9732678421487045</v>
       </c>
       <c r="D14">
-        <v>0.9882816724286068</v>
+        <v>0.9980095583503672</v>
       </c>
       <c r="E14">
-        <v>0.9745693192573227</v>
+        <v>0.9895455257959813</v>
       </c>
       <c r="F14">
-        <v>0.9670936376685759</v>
+        <v>0.9886710765482015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028787771287693</v>
+        <v>1.035649996750235</v>
       </c>
       <c r="J14">
-        <v>0.9929131018488692</v>
+        <v>1.003833916220141</v>
       </c>
       <c r="K14">
-        <v>1.003445279300639</v>
+        <v>1.012986127642301</v>
       </c>
       <c r="L14">
-        <v>0.9900049250525107</v>
+        <v>1.00468456014815</v>
       </c>
       <c r="M14">
-        <v>0.9826818204620879</v>
+        <v>1.003827103634538</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9626296507140266</v>
+        <v>0.97382885399732</v>
       </c>
       <c r="D15">
-        <v>0.9888825947688664</v>
+        <v>0.9983906882214166</v>
       </c>
       <c r="E15">
-        <v>0.9752241165908569</v>
+        <v>0.9900245978800023</v>
       </c>
       <c r="F15">
-        <v>0.9679557720230312</v>
+        <v>0.9892303772673342</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02904204783411</v>
+        <v>1.035765067969621</v>
       </c>
       <c r="J15">
-        <v>0.9934830969062332</v>
+        <v>1.004174462011841</v>
       </c>
       <c r="K15">
-        <v>1.003944146522755</v>
+        <v>1.013270920968022</v>
       </c>
       <c r="L15">
-        <v>0.9905542764624157</v>
+        <v>1.005064130649047</v>
       </c>
       <c r="M15">
-        <v>0.983432946741532</v>
+        <v>1.004285216367129</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9672602659832708</v>
+        <v>0.9770629040017083</v>
       </c>
       <c r="D16">
-        <v>0.9923349228499264</v>
+        <v>1.000589505924173</v>
       </c>
       <c r="E16">
-        <v>0.9789870451945483</v>
+        <v>0.9927893232093752</v>
       </c>
       <c r="F16">
-        <v>0.9729061581875226</v>
+        <v>0.9924579697106009</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030498095931726</v>
+        <v>1.036424755407103</v>
       </c>
       <c r="J16">
-        <v>0.9967547184770467</v>
+        <v>1.006137268421293</v>
       </c>
       <c r="K16">
-        <v>1.006806876378037</v>
+        <v>1.014911478336431</v>
       </c>
       <c r="L16">
-        <v>0.9937085219866661</v>
+        <v>1.007252936052245</v>
       </c>
       <c r="M16">
-        <v>0.9877442850068879</v>
+        <v>1.006927663686223</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9701105245904281</v>
+        <v>0.97906469999849</v>
       </c>
       <c r="D17">
-        <v>0.9944619661681008</v>
+        <v>1.001951952082186</v>
       </c>
       <c r="E17">
-        <v>0.981306436619419</v>
+        <v>0.9945032263640982</v>
       </c>
       <c r="F17">
-        <v>0.9759541180437108</v>
+        <v>0.9944587237089884</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03139099533365</v>
+        <v>1.036829822448931</v>
       </c>
       <c r="J17">
-        <v>0.9987678285998659</v>
+        <v>1.007351862936506</v>
       </c>
       <c r="K17">
-        <v>1.008567798985904</v>
+        <v>1.015925842849887</v>
       </c>
       <c r="L17">
-        <v>0.9956503677456903</v>
+        <v>1.008608325285512</v>
       </c>
       <c r="M17">
-        <v>0.9903973169970302</v>
+        <v>1.008564614203862</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.971754220322815</v>
+        <v>0.9802229154357434</v>
       </c>
       <c r="D18">
-        <v>0.9956892809023637</v>
+        <v>1.002740730729324</v>
       </c>
       <c r="E18">
-        <v>0.9826451015760664</v>
+        <v>0.9954957886702331</v>
       </c>
       <c r="F18">
-        <v>0.9777121503201935</v>
+        <v>0.9956173867897583</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031904689330335</v>
+        <v>1.037062995251724</v>
       </c>
       <c r="J18">
-        <v>0.9999284907183604</v>
+        <v>1.008054475492681</v>
       </c>
       <c r="K18">
-        <v>1.00958284015856</v>
+        <v>1.016512322698506</v>
       </c>
       <c r="L18">
-        <v>0.9967702819286045</v>
+        <v>1.009392726261553</v>
       </c>
       <c r="M18">
-        <v>0.9919270205612567</v>
+        <v>1.009512201104031</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9723115592148526</v>
+        <v>0.980616268007812</v>
       </c>
       <c r="D19">
-        <v>0.9961055461088528</v>
+        <v>1.003008694363802</v>
       </c>
       <c r="E19">
-        <v>0.9830991960041162</v>
+        <v>0.995833036097424</v>
       </c>
       <c r="F19">
-        <v>0.9783083142868942</v>
+        <v>0.9960110683823</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032078660618571</v>
+        <v>1.037141980887702</v>
       </c>
       <c r="J19">
-        <v>1.000321996696501</v>
+        <v>1.008293071508624</v>
       </c>
       <c r="K19">
-        <v>1.009926936804232</v>
+        <v>1.016711429356287</v>
       </c>
       <c r="L19">
-        <v>0.9971500299959678</v>
+        <v>1.009659154549239</v>
       </c>
       <c r="M19">
-        <v>0.9924456639524704</v>
+        <v>1.009834097785774</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.969806681922715</v>
+        <v>0.9788509043720621</v>
       </c>
       <c r="D20">
-        <v>0.9942351472278713</v>
+        <v>1.001806389356149</v>
       </c>
       <c r="E20">
-        <v>0.9810590688891624</v>
+        <v>0.9943200825173537</v>
       </c>
       <c r="F20">
-        <v>0.9756291664836171</v>
+        <v>0.994244930079739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03129593743725</v>
+        <v>1.036786683983178</v>
       </c>
       <c r="J20">
-        <v>0.9985532542781195</v>
+        <v>1.007222155801391</v>
       </c>
       <c r="K20">
-        <v>1.008380127748467</v>
+        <v>1.015817549779173</v>
       </c>
       <c r="L20">
-        <v>0.9954433539683688</v>
+        <v>1.008463547150007</v>
       </c>
       <c r="M20">
-        <v>0.990114525482882</v>
+        <v>1.008389735983133</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9614363775182776</v>
+        <v>0.972999149064642</v>
       </c>
       <c r="D21">
-        <v>0.9879936469829167</v>
+        <v>0.9978270506308929</v>
       </c>
       <c r="E21">
-        <v>0.9742554902146286</v>
+        <v>0.9893161320433222</v>
       </c>
       <c r="F21">
-        <v>0.9666803616247421</v>
+        <v>0.9884032642190552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028665809670609</v>
+        <v>1.035594819603342</v>
       </c>
       <c r="J21">
-        <v>0.9926398450293163</v>
+        <v>1.003670808754749</v>
       </c>
       <c r="K21">
-        <v>1.003206110337254</v>
+        <v>1.012849707476238</v>
       </c>
       <c r="L21">
-        <v>0.9897415849894702</v>
+        <v>1.004502780490442</v>
       </c>
       <c r="M21">
-        <v>0.9823217288068635</v>
+        <v>1.003607722157818</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9559864323277733</v>
+        <v>0.969229232011741</v>
       </c>
       <c r="D22">
-        <v>0.9839373641208849</v>
+        <v>0.9952685981430679</v>
       </c>
       <c r="E22">
-        <v>0.9698370540362693</v>
+        <v>0.9861013307816399</v>
       </c>
       <c r="F22">
-        <v>0.9608565307246814</v>
+        <v>0.9846498376842521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026942489708588</v>
+        <v>1.03481639378814</v>
       </c>
       <c r="J22">
-        <v>0.988787793992291</v>
+        <v>1.001382019550737</v>
       </c>
       <c r="K22">
-        <v>0.9998338849822467</v>
+        <v>1.010934371359187</v>
       </c>
       <c r="L22">
-        <v>0.986030699278492</v>
+        <v>1.001953244368199</v>
       </c>
       <c r="M22">
-        <v>0.9772454618718155</v>
+        <v>1.000531643277997</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9588942172429618</v>
+        <v>0.9712366373480583</v>
       </c>
       <c r="D23">
-        <v>0.9861007957008691</v>
+        <v>0.9966303986891312</v>
       </c>
       <c r="E23">
-        <v>0.9721933596700821</v>
+        <v>0.9878122845922325</v>
       </c>
       <c r="F23">
-        <v>0.9639635527177561</v>
+        <v>0.9866475065389816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027862942984038</v>
+        <v>1.035231864796427</v>
       </c>
       <c r="J23">
-        <v>0.990843167767553</v>
+        <v>1.002600817545988</v>
       </c>
       <c r="K23">
-        <v>1.001633392252978</v>
+        <v>1.011954537998877</v>
       </c>
       <c r="L23">
-        <v>0.9880104335647292</v>
+        <v>1.00331060052458</v>
       </c>
       <c r="M23">
-        <v>0.9799540910299006</v>
+        <v>1.002169135624634</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9699440332930559</v>
+        <v>0.9789475383934162</v>
       </c>
       <c r="D24">
-        <v>0.9943376780872584</v>
+        <v>1.001872181126441</v>
       </c>
       <c r="E24">
-        <v>0.9811708874557474</v>
+        <v>0.9944028593214689</v>
       </c>
       <c r="F24">
-        <v>0.9757760590659778</v>
+        <v>0.9943415599440319</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03133891195088</v>
+        <v>1.0368061859542</v>
       </c>
       <c r="J24">
-        <v>0.9986502529281917</v>
+        <v>1.00728078288502</v>
       </c>
       <c r="K24">
-        <v>1.008464965509551</v>
+        <v>1.015866498742088</v>
       </c>
       <c r="L24">
-        <v>0.9955369338093805</v>
+        <v>1.008528985201258</v>
       </c>
       <c r="M24">
-        <v>0.9902423615202889</v>
+        <v>1.008468778185338</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.982035450034454</v>
+        <v>0.9875294829914851</v>
       </c>
       <c r="D25">
-        <v>1.003376735053469</v>
+        <v>1.007724394632422</v>
       </c>
       <c r="E25">
-        <v>0.9910367806433458</v>
+        <v>1.001773102238583</v>
       </c>
       <c r="F25">
-        <v>0.9887146009885592</v>
+        <v>1.002945100335039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03509540382238</v>
+        <v>1.038512144122464</v>
       </c>
       <c r="J25">
-        <v>1.007182895653997</v>
+        <v>1.012483943580747</v>
       </c>
       <c r="K25">
-        <v>1.015922856746885</v>
+        <v>1.020203971176331</v>
       </c>
       <c r="L25">
-        <v>1.003775851095999</v>
+        <v>1.014343955295472</v>
       </c>
       <c r="M25">
-        <v>1.001490671511233</v>
+        <v>1.015497868805856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9941076804963552</v>
+        <v>1.028408779208068</v>
       </c>
       <c r="D2">
-        <v>1.012221474360132</v>
+        <v>1.030595463669476</v>
       </c>
       <c r="E2">
-        <v>1.007448547849611</v>
+        <v>1.037033332487</v>
       </c>
       <c r="F2">
-        <v>1.009570765753634</v>
+        <v>1.044843750138388</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039780783513007</v>
+        <v>1.029700318295664</v>
       </c>
       <c r="J2">
-        <v>1.016466069577441</v>
+        <v>1.033561260467731</v>
       </c>
       <c r="K2">
-        <v>1.023513130432437</v>
+        <v>1.033406019534925</v>
       </c>
       <c r="L2">
-        <v>1.018805078828954</v>
+        <v>1.039825372727055</v>
       </c>
       <c r="M2">
-        <v>1.020898355660289</v>
+        <v>1.047613659673579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9987421006221822</v>
+        <v>1.029391606141853</v>
       </c>
       <c r="D3">
-        <v>1.015394689531714</v>
+        <v>1.031280565390298</v>
       </c>
       <c r="E3">
-        <v>1.011461087875149</v>
+        <v>1.037942169326056</v>
       </c>
       <c r="F3">
-        <v>1.014255916627774</v>
+        <v>1.045919146538698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040651020648819</v>
+        <v>1.029818778292732</v>
       </c>
       <c r="J3">
-        <v>1.019267116081219</v>
+        <v>1.034184513075173</v>
       </c>
       <c r="K3">
-        <v>1.025834310011245</v>
+        <v>1.03389984014603</v>
       </c>
       <c r="L3">
-        <v>1.021949392509923</v>
+        <v>1.040543671192461</v>
       </c>
       <c r="M3">
-        <v>1.024709582768066</v>
+        <v>1.04849968785429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001679065707141</v>
+        <v>1.03002794556716</v>
       </c>
       <c r="D4">
-        <v>1.017407467309035</v>
+        <v>1.031723906649634</v>
       </c>
       <c r="E4">
-        <v>1.014010200077689</v>
+        <v>1.038531017501686</v>
       </c>
       <c r="F4">
-        <v>1.017232858323543</v>
+        <v>1.046616102736138</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041191310740253</v>
+        <v>1.029894055214282</v>
       </c>
       <c r="J4">
-        <v>1.021039918115327</v>
+        <v>1.034587598436207</v>
       </c>
       <c r="K4">
-        <v>1.02730024289124</v>
+        <v>1.034218733465333</v>
       </c>
       <c r="L4">
-        <v>1.023942424636005</v>
+        <v>1.041008598321494</v>
       </c>
       <c r="M4">
-        <v>1.027127653523558</v>
+        <v>1.049073513562051</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00289950568949</v>
+        <v>1.030295554107258</v>
       </c>
       <c r="D5">
-        <v>1.018244234801862</v>
+        <v>1.031910294321527</v>
       </c>
       <c r="E5">
-        <v>1.015070930031039</v>
+        <v>1.038778752586523</v>
       </c>
       <c r="F5">
-        <v>1.018471764766083</v>
+        <v>1.046909366251542</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041413090993855</v>
+        <v>1.029925372055578</v>
       </c>
       <c r="J5">
-        <v>1.021776006696737</v>
+        <v>1.034757006672969</v>
       </c>
       <c r="K5">
-        <v>1.027908135693188</v>
+        <v>1.03435264170406</v>
       </c>
       <c r="L5">
-        <v>1.024770675530771</v>
+        <v>1.041204086374852</v>
       </c>
       <c r="M5">
-        <v>1.028133106124383</v>
+        <v>1.049314870233168</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003103601854526</v>
+        <v>1.030340492102388</v>
       </c>
       <c r="D6">
-        <v>1.018384188516561</v>
+        <v>1.031941590005252</v>
       </c>
       <c r="E6">
-        <v>1.015248402345839</v>
+        <v>1.038820359117235</v>
       </c>
       <c r="F6">
-        <v>1.018679057458386</v>
+        <v>1.046958621890598</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041450017600947</v>
+        <v>1.029930610950264</v>
       </c>
       <c r="J6">
-        <v>1.021899068250744</v>
+        <v>1.03478544817393</v>
       </c>
       <c r="K6">
-        <v>1.028009718577353</v>
+        <v>1.034375116399599</v>
       </c>
       <c r="L6">
-        <v>1.024909187599228</v>
+        <v>1.041236911572099</v>
       </c>
       <c r="M6">
-        <v>1.02830128609463</v>
+        <v>1.049355402112687</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001695428625428</v>
+        <v>1.030031521007052</v>
       </c>
       <c r="D7">
-        <v>1.017418684811883</v>
+        <v>1.031726397144918</v>
       </c>
       <c r="E7">
-        <v>1.014024415983533</v>
+        <v>1.038534327031002</v>
       </c>
       <c r="F7">
-        <v>1.017249461533324</v>
+        <v>1.046620020304768</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041194295097464</v>
+        <v>1.029894474967072</v>
       </c>
       <c r="J7">
-        <v>1.021049789522495</v>
+        <v>1.03458986227029</v>
       </c>
       <c r="K7">
-        <v>1.027308398224877</v>
+        <v>1.03422052336204</v>
       </c>
       <c r="L7">
-        <v>1.023953529142525</v>
+        <v>1.041011210315022</v>
       </c>
       <c r="M7">
-        <v>1.027141131549266</v>
+        <v>1.049076738109896</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9956870366967149</v>
+        <v>1.028740850130886</v>
       </c>
       <c r="D8">
-        <v>1.013302444837552</v>
+        <v>1.030826989060154</v>
       </c>
       <c r="E8">
-        <v>1.008814638932739</v>
+        <v>1.037340318110652</v>
       </c>
       <c r="F8">
-        <v>1.011165753942055</v>
+        <v>1.045206956506708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040079671559367</v>
+        <v>1.029740636735092</v>
       </c>
       <c r="J8">
-        <v>1.017421092903821</v>
+        <v>1.033771932696776</v>
       </c>
       <c r="K8">
-        <v>1.02430519119476</v>
+        <v>1.033573040834418</v>
       </c>
       <c r="L8">
-        <v>1.019876519601706</v>
+        <v>1.040068095573263</v>
       </c>
       <c r="M8">
-        <v>1.022196572672935</v>
+        <v>1.047912991716348</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.984600385247118</v>
+        <v>1.02646949779077</v>
       </c>
       <c r="D9">
-        <v>1.005724979380421</v>
+        <v>1.02924243896241</v>
       </c>
       <c r="E9">
-        <v>0.9992533204474319</v>
+        <v>1.035242263834506</v>
       </c>
       <c r="F9">
-        <v>1.000003661113987</v>
+        <v>1.042725442874358</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037935910698301</v>
+        <v>1.02945904779942</v>
       </c>
       <c r="J9">
-        <v>1.010708914105988</v>
+        <v>1.032329133485793</v>
       </c>
       <c r="K9">
-        <v>1.018725850676707</v>
+        <v>1.032427219506918</v>
       </c>
       <c r="L9">
-        <v>1.012358523633915</v>
+        <v>1.038407315427914</v>
       </c>
       <c r="M9">
-        <v>1.013096678919356</v>
+        <v>1.045866236354213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9768353906133134</v>
+        <v>1.024957299426451</v>
       </c>
       <c r="D10">
-        <v>1.000434725860893</v>
+        <v>1.0281863641626</v>
       </c>
       <c r="E10">
-        <v>0.9925946568402321</v>
+        <v>1.033847615444408</v>
       </c>
       <c r="F10">
-        <v>0.9922307189352326</v>
+        <v>1.041076856586623</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036378556257239</v>
+        <v>1.029264286794394</v>
       </c>
       <c r="J10">
-        <v>1.005999206643556</v>
+        <v>1.031366302726626</v>
       </c>
       <c r="K10">
-        <v>1.014796135631695</v>
+        <v>1.031660114215001</v>
       </c>
       <c r="L10">
-        <v>1.007098916802669</v>
+        <v>1.0373009219029</v>
       </c>
       <c r="M10">
-        <v>1.006741681485466</v>
+        <v>1.044504413679536</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9733750529539047</v>
+        <v>1.024302990978667</v>
       </c>
       <c r="D11">
-        <v>0.9980823862708876</v>
+        <v>1.027729157034499</v>
       </c>
       <c r="E11">
-        <v>0.9896370657377521</v>
+        <v>1.033244691091344</v>
       </c>
       <c r="F11">
-        <v>0.9887779469788976</v>
+        <v>1.04036437605686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03567200127388</v>
+        <v>1.029178290457414</v>
       </c>
       <c r="J11">
-        <v>1.003898996547334</v>
+        <v>1.030949166894842</v>
       </c>
       <c r="K11">
-        <v>1.013040556812302</v>
+        <v>1.031327195251961</v>
       </c>
       <c r="L11">
-        <v>1.004757094165247</v>
+        <v>1.036822039180131</v>
       </c>
       <c r="M11">
-        <v>1.003914643887198</v>
+        <v>1.043915375194165</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9720741373149075</v>
+        <v>1.0240600248135</v>
       </c>
       <c r="D12">
-        <v>0.9971989034387518</v>
+        <v>1.027559343236209</v>
       </c>
       <c r="E12">
-        <v>0.9885266843617642</v>
+        <v>1.033020884446943</v>
       </c>
       <c r="F12">
-        <v>0.9874815864527746</v>
+        <v>1.040099935392317</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035404549515422</v>
+        <v>1.029146098109302</v>
       </c>
       <c r="J12">
-        <v>1.003109265374472</v>
+        <v>1.030794191160425</v>
       </c>
       <c r="K12">
-        <v>1.012379965517855</v>
+        <v>1.031203421385566</v>
       </c>
       <c r="L12">
-        <v>1.003877046253155</v>
+        <v>1.036644190545716</v>
       </c>
       <c r="M12">
-        <v>1.00285261463782</v>
+        <v>1.043696676927822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9723539082623349</v>
+        <v>1.024112138563593</v>
       </c>
       <c r="D13">
-        <v>0.9973888610709267</v>
+        <v>1.02759576825139</v>
       </c>
       <c r="E13">
-        <v>0.988765409548215</v>
+        <v>1.033068885096248</v>
       </c>
       <c r="F13">
-        <v>0.9877602997958304</v>
+        <v>1.040156649463388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035462148154987</v>
+        <v>1.02915301475953</v>
       </c>
       <c r="J13">
-        <v>1.003279108684144</v>
+        <v>1.030827435459628</v>
       </c>
       <c r="K13">
-        <v>1.012522055242584</v>
+        <v>1.03122997639742</v>
       </c>
       <c r="L13">
-        <v>1.004066289406105</v>
+        <v>1.036682338324245</v>
       </c>
       <c r="M13">
-        <v>1.003080974537266</v>
+        <v>1.043743584053522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9732678421487045</v>
+        <v>1.024282905825033</v>
       </c>
       <c r="D14">
-        <v>0.9980095583503672</v>
+        <v>1.027715119894802</v>
       </c>
       <c r="E14">
-        <v>0.9895455257959813</v>
+        <v>1.033226188174304</v>
       </c>
       <c r="F14">
-        <v>0.9886710765482015</v>
+        <v>1.040342513095556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035649996750235</v>
+        <v>1.029175634514591</v>
       </c>
       <c r="J14">
-        <v>1.003833916220141</v>
+        <v>1.03093635721964</v>
       </c>
       <c r="K14">
-        <v>1.012986127642301</v>
+        <v>1.031316966364662</v>
       </c>
       <c r="L14">
-        <v>1.00468456014815</v>
+        <v>1.036807337545746</v>
       </c>
       <c r="M14">
-        <v>1.003827103634538</v>
+        <v>1.043897295547141</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.97382885399732</v>
+        <v>1.024388130875612</v>
       </c>
       <c r="D15">
-        <v>0.9983906882214166</v>
+        <v>1.0277886581788</v>
       </c>
       <c r="E15">
-        <v>0.9900245978800023</v>
+        <v>1.033323127207227</v>
       </c>
       <c r="F15">
-        <v>0.9892303772673342</v>
+        <v>1.040457057177072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035765067969621</v>
+        <v>1.029189538247178</v>
       </c>
       <c r="J15">
-        <v>1.004174462011841</v>
+        <v>1.031003463170573</v>
       </c>
       <c r="K15">
-        <v>1.013270920968022</v>
+        <v>1.031370548813855</v>
       </c>
       <c r="L15">
-        <v>1.005064130649047</v>
+        <v>1.036884357653397</v>
       </c>
       <c r="M15">
-        <v>1.004285216367129</v>
+        <v>1.043992015127879</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9770629040017083</v>
+        <v>1.025000733950656</v>
       </c>
       <c r="D16">
-        <v>1.000589505924173</v>
+        <v>1.028216709289526</v>
       </c>
       <c r="E16">
-        <v>0.9927893232093752</v>
+        <v>1.033887650014017</v>
       </c>
       <c r="F16">
-        <v>0.9924579697106009</v>
+        <v>1.041124170465087</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036424755407103</v>
+        <v>1.029269959077481</v>
       </c>
       <c r="J16">
-        <v>1.006137268421293</v>
+        <v>1.031393982003669</v>
       </c>
       <c r="K16">
-        <v>1.014911478336431</v>
+        <v>1.031682193065935</v>
       </c>
       <c r="L16">
-        <v>1.007252936052245</v>
+        <v>1.037332707900824</v>
       </c>
       <c r="M16">
-        <v>1.006927663686223</v>
+        <v>1.044543519765398</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.97906469999849</v>
+        <v>1.025385133450057</v>
       </c>
       <c r="D17">
-        <v>1.001951952082186</v>
+        <v>1.028485236792924</v>
       </c>
       <c r="E17">
-        <v>0.9945032263640982</v>
+        <v>1.03424201997003</v>
       </c>
       <c r="F17">
-        <v>0.9944587237089884</v>
+        <v>1.041542999856663</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036829822448931</v>
+        <v>1.029319959879769</v>
       </c>
       <c r="J17">
-        <v>1.007351862936506</v>
+        <v>1.031638884740069</v>
       </c>
       <c r="K17">
-        <v>1.015925842849887</v>
+        <v>1.031877477109406</v>
       </c>
       <c r="L17">
-        <v>1.008608325285512</v>
+        <v>1.037613998351641</v>
       </c>
       <c r="M17">
-        <v>1.008564614203862</v>
+        <v>1.044889635848961</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9802229154357434</v>
+        <v>1.025609393784273</v>
       </c>
       <c r="D18">
-        <v>1.002740730729324</v>
+        <v>1.028641872000938</v>
       </c>
       <c r="E18">
-        <v>0.9954957886702331</v>
+        <v>1.034448811266848</v>
       </c>
       <c r="F18">
-        <v>0.9956173867897583</v>
+        <v>1.041787427915551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037062995251724</v>
+        <v>1.029348963964565</v>
       </c>
       <c r="J18">
-        <v>1.008054475492681</v>
+        <v>1.031781710725981</v>
       </c>
       <c r="K18">
-        <v>1.016512322698506</v>
+        <v>1.031991309862515</v>
       </c>
       <c r="L18">
-        <v>1.009392726261553</v>
+        <v>1.037778088882155</v>
       </c>
       <c r="M18">
-        <v>1.009512201104031</v>
+        <v>1.045091581178302</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.980616268007812</v>
+        <v>1.025685868653618</v>
       </c>
       <c r="D19">
-        <v>1.003008694363802</v>
+        <v>1.02869528182052</v>
       </c>
       <c r="E19">
-        <v>0.995833036097424</v>
+        <v>1.034519337551482</v>
       </c>
       <c r="F19">
-        <v>0.9960110683823</v>
+        <v>1.041870793926549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037141980887702</v>
+        <v>1.029358826364427</v>
       </c>
       <c r="J19">
-        <v>1.008293071508624</v>
+        <v>1.031830407004855</v>
       </c>
       <c r="K19">
-        <v>1.016711429356287</v>
+        <v>1.032030111460807</v>
       </c>
       <c r="L19">
-        <v>1.009659154549239</v>
+        <v>1.037834042639858</v>
       </c>
       <c r="M19">
-        <v>1.009834097785774</v>
+        <v>1.045160449755217</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9788509043720621</v>
+        <v>1.025343886196973</v>
       </c>
       <c r="D20">
-        <v>1.001806389356149</v>
+        <v>1.028456425532049</v>
       </c>
       <c r="E20">
-        <v>0.9943200825173537</v>
+        <v>1.034203989770542</v>
       </c>
       <c r="F20">
-        <v>0.994244930079739</v>
+        <v>1.04149804977177</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036786683983178</v>
+        <v>1.029314611868759</v>
       </c>
       <c r="J20">
-        <v>1.007222155801391</v>
+        <v>1.031612611227063</v>
       </c>
       <c r="K20">
-        <v>1.015817549779173</v>
+        <v>1.031856532537329</v>
       </c>
       <c r="L20">
-        <v>1.008463547150007</v>
+        <v>1.037583816622255</v>
       </c>
       <c r="M20">
-        <v>1.008389735983133</v>
+        <v>1.044852494484191</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.972999149064642</v>
+        <v>1.024232617100169</v>
       </c>
       <c r="D21">
-        <v>0.9978270506308929</v>
+        <v>1.027679973433924</v>
       </c>
       <c r="E21">
-        <v>0.9893161320433222</v>
+        <v>1.033179862292234</v>
       </c>
       <c r="F21">
-        <v>0.9884032642190552</v>
+        <v>1.04028777518657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035594819603342</v>
+        <v>1.029168980443765</v>
       </c>
       <c r="J21">
-        <v>1.003670808754749</v>
+        <v>1.030904283379036</v>
       </c>
       <c r="K21">
-        <v>1.012849707476238</v>
+        <v>1.031291353098463</v>
       </c>
       <c r="L21">
-        <v>1.004502780490442</v>
+        <v>1.036770527563872</v>
       </c>
       <c r="M21">
-        <v>1.003607722157818</v>
+        <v>1.043852028663797</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.969229232011741</v>
+        <v>1.02353434144357</v>
       </c>
       <c r="D22">
-        <v>0.9952685981430679</v>
+        <v>1.027191864661261</v>
       </c>
       <c r="E22">
-        <v>0.9861013307816399</v>
+        <v>1.032536799641506</v>
       </c>
       <c r="F22">
-        <v>0.9846498376842521</v>
+        <v>1.039528021649661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03481639378814</v>
+        <v>1.0290759729971</v>
       </c>
       <c r="J22">
-        <v>1.001382019550737</v>
+        <v>1.03045873946947</v>
       </c>
       <c r="K22">
-        <v>1.010934371359187</v>
+        <v>1.030935349329697</v>
       </c>
       <c r="L22">
-        <v>1.001953244368199</v>
+        <v>1.03625935283546</v>
       </c>
       <c r="M22">
-        <v>1.000531643277997</v>
+        <v>1.043223556832239</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9712366373480583</v>
+        <v>1.023904470286971</v>
       </c>
       <c r="D23">
-        <v>0.9966303986891312</v>
+        <v>1.027450612601855</v>
       </c>
       <c r="E23">
-        <v>0.9878122845922325</v>
+        <v>1.032877618727109</v>
       </c>
       <c r="F23">
-        <v>0.9866475065389816</v>
+        <v>1.039930667926974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035231864796427</v>
+        <v>1.029125414652312</v>
       </c>
       <c r="J23">
-        <v>1.002600817545988</v>
+        <v>1.030694948507764</v>
       </c>
       <c r="K23">
-        <v>1.011954537998877</v>
+        <v>1.031124135283062</v>
       </c>
       <c r="L23">
-        <v>1.00331060052458</v>
+        <v>1.036530319643754</v>
       </c>
       <c r="M23">
-        <v>1.002169135624634</v>
+        <v>1.04355666824068</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9789475383934162</v>
+        <v>1.025362523911122</v>
       </c>
       <c r="D24">
-        <v>1.001872181126441</v>
+        <v>1.028469444077118</v>
       </c>
       <c r="E24">
-        <v>0.9944028593214689</v>
+        <v>1.03422117369248</v>
       </c>
       <c r="F24">
-        <v>0.9943415599440319</v>
+        <v>1.041518360372554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0368061859542</v>
+        <v>1.029317028900798</v>
       </c>
       <c r="J24">
-        <v>1.00728078288502</v>
+        <v>1.031624483163542</v>
       </c>
       <c r="K24">
-        <v>1.015866498742088</v>
+        <v>1.031865996713903</v>
       </c>
       <c r="L24">
-        <v>1.008528985201258</v>
+        <v>1.03759745438926</v>
       </c>
       <c r="M24">
-        <v>1.008468778185338</v>
+        <v>1.044869276877655</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9875294829914851</v>
+        <v>1.027056340554026</v>
       </c>
       <c r="D25">
-        <v>1.007724394632422</v>
+        <v>1.029652037210649</v>
       </c>
       <c r="E25">
-        <v>1.001773102238583</v>
+        <v>1.035783950882585</v>
       </c>
       <c r="F25">
-        <v>1.002945100335039</v>
+        <v>1.043365962825395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038512144122464</v>
+        <v>1.029533087374768</v>
       </c>
       <c r="J25">
-        <v>1.012483943580747</v>
+        <v>1.032702305041386</v>
       </c>
       <c r="K25">
-        <v>1.020203971176331</v>
+        <v>1.032724013977079</v>
       </c>
       <c r="L25">
-        <v>1.014343955295472</v>
+        <v>1.038836530604861</v>
       </c>
       <c r="M25">
-        <v>1.015497868805856</v>
+        <v>1.046394902748659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028408779208068</v>
+        <v>0.9941076804963541</v>
       </c>
       <c r="D2">
-        <v>1.030595463669476</v>
+        <v>1.012221474360131</v>
       </c>
       <c r="E2">
-        <v>1.037033332487</v>
+        <v>1.00744854784961</v>
       </c>
       <c r="F2">
-        <v>1.044843750138388</v>
+        <v>1.009570765753633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029700318295664</v>
+        <v>1.039780783513007</v>
       </c>
       <c r="J2">
-        <v>1.033561260467731</v>
+        <v>1.01646606957744</v>
       </c>
       <c r="K2">
-        <v>1.033406019534925</v>
+        <v>1.023513130432436</v>
       </c>
       <c r="L2">
-        <v>1.039825372727055</v>
+        <v>1.018805078828953</v>
       </c>
       <c r="M2">
-        <v>1.047613659673579</v>
+        <v>1.020898355660288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029391606141853</v>
+        <v>0.998742100622183</v>
       </c>
       <c r="D3">
-        <v>1.031280565390298</v>
+        <v>1.015394689531714</v>
       </c>
       <c r="E3">
-        <v>1.037942169326056</v>
+        <v>1.01146108787515</v>
       </c>
       <c r="F3">
-        <v>1.045919146538698</v>
+        <v>1.014255916627775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029818778292732</v>
+        <v>1.040651020648819</v>
       </c>
       <c r="J3">
-        <v>1.034184513075173</v>
+        <v>1.01926711608122</v>
       </c>
       <c r="K3">
-        <v>1.03389984014603</v>
+        <v>1.025834310011246</v>
       </c>
       <c r="L3">
-        <v>1.040543671192461</v>
+        <v>1.021949392509923</v>
       </c>
       <c r="M3">
-        <v>1.04849968785429</v>
+        <v>1.024709582768067</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03002794556716</v>
+        <v>1.00167906570714</v>
       </c>
       <c r="D4">
-        <v>1.031723906649634</v>
+        <v>1.017407467309034</v>
       </c>
       <c r="E4">
-        <v>1.038531017501686</v>
+        <v>1.014010200077688</v>
       </c>
       <c r="F4">
-        <v>1.046616102736138</v>
+        <v>1.017232858323542</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029894055214282</v>
+        <v>1.041191310740253</v>
       </c>
       <c r="J4">
-        <v>1.034587598436207</v>
+        <v>1.021039918115326</v>
       </c>
       <c r="K4">
-        <v>1.034218733465333</v>
+        <v>1.027300242891239</v>
       </c>
       <c r="L4">
-        <v>1.041008598321494</v>
+        <v>1.023942424636004</v>
       </c>
       <c r="M4">
-        <v>1.049073513562051</v>
+        <v>1.027127653523558</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030295554107258</v>
+        <v>1.00289950568949</v>
       </c>
       <c r="D5">
-        <v>1.031910294321527</v>
+        <v>1.018244234801862</v>
       </c>
       <c r="E5">
-        <v>1.038778752586523</v>
+        <v>1.015070930031039</v>
       </c>
       <c r="F5">
-        <v>1.046909366251542</v>
+        <v>1.018471764766083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029925372055578</v>
+        <v>1.041413090993855</v>
       </c>
       <c r="J5">
-        <v>1.034757006672969</v>
+        <v>1.021776006696737</v>
       </c>
       <c r="K5">
-        <v>1.03435264170406</v>
+        <v>1.027908135693188</v>
       </c>
       <c r="L5">
-        <v>1.041204086374852</v>
+        <v>1.024770675530771</v>
       </c>
       <c r="M5">
-        <v>1.049314870233168</v>
+        <v>1.028133106124383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030340492102388</v>
+        <v>1.003103601854526</v>
       </c>
       <c r="D6">
-        <v>1.031941590005252</v>
+        <v>1.018384188516561</v>
       </c>
       <c r="E6">
-        <v>1.038820359117235</v>
+        <v>1.015248402345838</v>
       </c>
       <c r="F6">
-        <v>1.046958621890598</v>
+        <v>1.018679057458386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029930610950264</v>
+        <v>1.041450017600947</v>
       </c>
       <c r="J6">
-        <v>1.03478544817393</v>
+        <v>1.021899068250744</v>
       </c>
       <c r="K6">
-        <v>1.034375116399599</v>
+        <v>1.028009718577353</v>
       </c>
       <c r="L6">
-        <v>1.041236911572099</v>
+        <v>1.024909187599227</v>
       </c>
       <c r="M6">
-        <v>1.049355402112687</v>
+        <v>1.02830128609463</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030031521007052</v>
+        <v>1.001695428625429</v>
       </c>
       <c r="D7">
-        <v>1.031726397144918</v>
+        <v>1.017418684811884</v>
       </c>
       <c r="E7">
-        <v>1.038534327031002</v>
+        <v>1.014024415983533</v>
       </c>
       <c r="F7">
-        <v>1.046620020304768</v>
+        <v>1.017249461533324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029894474967072</v>
+        <v>1.041194295097465</v>
       </c>
       <c r="J7">
-        <v>1.03458986227029</v>
+        <v>1.021049789522495</v>
       </c>
       <c r="K7">
-        <v>1.03422052336204</v>
+        <v>1.027308398224877</v>
       </c>
       <c r="L7">
-        <v>1.041011210315022</v>
+        <v>1.023953529142525</v>
       </c>
       <c r="M7">
-        <v>1.049076738109896</v>
+        <v>1.027141131549266</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028740850130886</v>
+        <v>0.9956870366967144</v>
       </c>
       <c r="D8">
-        <v>1.030826989060154</v>
+        <v>1.013302444837552</v>
       </c>
       <c r="E8">
-        <v>1.037340318110652</v>
+        <v>1.008814638932739</v>
       </c>
       <c r="F8">
-        <v>1.045206956506708</v>
+        <v>1.011165753942054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029740636735092</v>
+        <v>1.040079671559366</v>
       </c>
       <c r="J8">
-        <v>1.033771932696776</v>
+        <v>1.017421092903821</v>
       </c>
       <c r="K8">
-        <v>1.033573040834418</v>
+        <v>1.024305191194759</v>
       </c>
       <c r="L8">
-        <v>1.040068095573263</v>
+        <v>1.019876519601705</v>
       </c>
       <c r="M8">
-        <v>1.047912991716348</v>
+        <v>1.022196572672935</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02646949779077</v>
+        <v>0.9846003852471185</v>
       </c>
       <c r="D9">
-        <v>1.02924243896241</v>
+        <v>1.005724979380421</v>
       </c>
       <c r="E9">
-        <v>1.035242263834506</v>
+        <v>0.9992533204474326</v>
       </c>
       <c r="F9">
-        <v>1.042725442874358</v>
+        <v>1.000003661113988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02945904779942</v>
+        <v>1.037935910698301</v>
       </c>
       <c r="J9">
-        <v>1.032329133485793</v>
+        <v>1.010708914105989</v>
       </c>
       <c r="K9">
-        <v>1.032427219506918</v>
+        <v>1.018725850676707</v>
       </c>
       <c r="L9">
-        <v>1.038407315427914</v>
+        <v>1.012358523633916</v>
       </c>
       <c r="M9">
-        <v>1.045866236354213</v>
+        <v>1.013096678919357</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024957299426451</v>
+        <v>0.9768353906133135</v>
       </c>
       <c r="D10">
-        <v>1.0281863641626</v>
+        <v>1.000434725860893</v>
       </c>
       <c r="E10">
-        <v>1.033847615444408</v>
+        <v>0.9925946568402323</v>
       </c>
       <c r="F10">
-        <v>1.041076856586623</v>
+        <v>0.9922307189352331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029264286794394</v>
+        <v>1.036378556257239</v>
       </c>
       <c r="J10">
-        <v>1.031366302726626</v>
+        <v>1.005999206643556</v>
       </c>
       <c r="K10">
-        <v>1.031660114215001</v>
+        <v>1.014796135631696</v>
       </c>
       <c r="L10">
-        <v>1.0373009219029</v>
+        <v>1.00709891680267</v>
       </c>
       <c r="M10">
-        <v>1.044504413679536</v>
+        <v>1.006741681485467</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024302990978667</v>
+        <v>0.9733750529539053</v>
       </c>
       <c r="D11">
-        <v>1.027729157034499</v>
+        <v>0.9980823862708881</v>
       </c>
       <c r="E11">
-        <v>1.033244691091344</v>
+        <v>0.9896370657377525</v>
       </c>
       <c r="F11">
-        <v>1.04036437605686</v>
+        <v>0.9887779469788979</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029178290457414</v>
+        <v>1.03567200127388</v>
       </c>
       <c r="J11">
-        <v>1.030949166894842</v>
+        <v>1.003898996547335</v>
       </c>
       <c r="K11">
-        <v>1.031327195251961</v>
+        <v>1.013040556812302</v>
       </c>
       <c r="L11">
-        <v>1.036822039180131</v>
+        <v>1.004757094165247</v>
       </c>
       <c r="M11">
-        <v>1.043915375194165</v>
+        <v>1.003914643887198</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0240600248135</v>
+        <v>0.9720741373149073</v>
       </c>
       <c r="D12">
-        <v>1.027559343236209</v>
+        <v>0.9971989034387516</v>
       </c>
       <c r="E12">
-        <v>1.033020884446943</v>
+        <v>0.9885266843617636</v>
       </c>
       <c r="F12">
-        <v>1.040099935392317</v>
+        <v>0.9874815864527738</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029146098109302</v>
+        <v>1.035404549515422</v>
       </c>
       <c r="J12">
-        <v>1.030794191160425</v>
+        <v>1.003109265374472</v>
       </c>
       <c r="K12">
-        <v>1.031203421385566</v>
+        <v>1.012379965517855</v>
       </c>
       <c r="L12">
-        <v>1.036644190545716</v>
+        <v>1.003877046253154</v>
       </c>
       <c r="M12">
-        <v>1.043696676927822</v>
+        <v>1.002852614637819</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024112138563593</v>
+        <v>0.9723539082623354</v>
       </c>
       <c r="D13">
-        <v>1.02759576825139</v>
+        <v>0.9973888610709267</v>
       </c>
       <c r="E13">
-        <v>1.033068885096248</v>
+        <v>0.988765409548215</v>
       </c>
       <c r="F13">
-        <v>1.040156649463388</v>
+        <v>0.9877602997958304</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02915301475953</v>
+        <v>1.035462148154987</v>
       </c>
       <c r="J13">
-        <v>1.030827435459628</v>
+        <v>1.003279108684144</v>
       </c>
       <c r="K13">
-        <v>1.03122997639742</v>
+        <v>1.012522055242584</v>
       </c>
       <c r="L13">
-        <v>1.036682338324245</v>
+        <v>1.004066289406105</v>
       </c>
       <c r="M13">
-        <v>1.043743584053522</v>
+        <v>1.003080974537266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024282905825033</v>
+        <v>0.9732678421487049</v>
       </c>
       <c r="D14">
-        <v>1.027715119894802</v>
+        <v>0.9980095583503674</v>
       </c>
       <c r="E14">
-        <v>1.033226188174304</v>
+        <v>0.9895455257959814</v>
       </c>
       <c r="F14">
-        <v>1.040342513095556</v>
+        <v>0.9886710765482019</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029175634514591</v>
+        <v>1.035649996750235</v>
       </c>
       <c r="J14">
-        <v>1.03093635721964</v>
+        <v>1.003833916220141</v>
       </c>
       <c r="K14">
-        <v>1.031316966364662</v>
+        <v>1.012986127642302</v>
       </c>
       <c r="L14">
-        <v>1.036807337545746</v>
+        <v>1.00468456014815</v>
       </c>
       <c r="M14">
-        <v>1.043897295547141</v>
+        <v>1.003827103634538</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024388130875612</v>
+        <v>0.9738288539973194</v>
       </c>
       <c r="D15">
-        <v>1.0277886581788</v>
+        <v>0.9983906882214163</v>
       </c>
       <c r="E15">
-        <v>1.033323127207227</v>
+        <v>0.9900245978800014</v>
       </c>
       <c r="F15">
-        <v>1.040457057177072</v>
+        <v>0.9892303772673333</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029189538247178</v>
+        <v>1.035765067969621</v>
       </c>
       <c r="J15">
-        <v>1.031003463170573</v>
+        <v>1.00417446201184</v>
       </c>
       <c r="K15">
-        <v>1.031370548813855</v>
+        <v>1.013270920968022</v>
       </c>
       <c r="L15">
-        <v>1.036884357653397</v>
+        <v>1.005064130649046</v>
       </c>
       <c r="M15">
-        <v>1.043992015127879</v>
+        <v>1.004285216367129</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025000733950656</v>
+        <v>0.977062904001707</v>
       </c>
       <c r="D16">
-        <v>1.028216709289526</v>
+        <v>1.000589505924172</v>
       </c>
       <c r="E16">
-        <v>1.033887650014017</v>
+        <v>0.9927893232093741</v>
       </c>
       <c r="F16">
-        <v>1.041124170465087</v>
+        <v>0.9924579697105996</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029269959077481</v>
+        <v>1.036424755407102</v>
       </c>
       <c r="J16">
-        <v>1.031393982003669</v>
+        <v>1.006137268421292</v>
       </c>
       <c r="K16">
-        <v>1.031682193065935</v>
+        <v>1.014911478336431</v>
       </c>
       <c r="L16">
-        <v>1.037332707900824</v>
+        <v>1.007252936052244</v>
       </c>
       <c r="M16">
-        <v>1.044543519765398</v>
+        <v>1.006927663686221</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025385133450057</v>
+        <v>0.9790646999984894</v>
       </c>
       <c r="D17">
-        <v>1.028485236792924</v>
+        <v>1.001951952082185</v>
       </c>
       <c r="E17">
-        <v>1.03424201997003</v>
+        <v>0.9945032263640978</v>
       </c>
       <c r="F17">
-        <v>1.041542999856663</v>
+        <v>0.9944587237089882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029319959879769</v>
+        <v>1.036829822448931</v>
       </c>
       <c r="J17">
-        <v>1.031638884740069</v>
+        <v>1.007351862936505</v>
       </c>
       <c r="K17">
-        <v>1.031877477109406</v>
+        <v>1.015925842849886</v>
       </c>
       <c r="L17">
-        <v>1.037613998351641</v>
+        <v>1.008608325285512</v>
       </c>
       <c r="M17">
-        <v>1.044889635848961</v>
+        <v>1.008564614203862</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025609393784273</v>
+        <v>0.9802229154357442</v>
       </c>
       <c r="D18">
-        <v>1.028641872000938</v>
+        <v>1.002740730729324</v>
       </c>
       <c r="E18">
-        <v>1.034448811266848</v>
+        <v>0.9954957886702339</v>
       </c>
       <c r="F18">
-        <v>1.041787427915551</v>
+        <v>0.9956173867897591</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029348963964565</v>
+        <v>1.037062995251725</v>
       </c>
       <c r="J18">
-        <v>1.031781710725981</v>
+        <v>1.008054475492681</v>
       </c>
       <c r="K18">
-        <v>1.031991309862515</v>
+        <v>1.016512322698507</v>
       </c>
       <c r="L18">
-        <v>1.037778088882155</v>
+        <v>1.009392726261553</v>
       </c>
       <c r="M18">
-        <v>1.045091581178302</v>
+        <v>1.009512201104032</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025685868653618</v>
+        <v>0.9806162680078122</v>
       </c>
       <c r="D19">
-        <v>1.02869528182052</v>
+        <v>1.003008694363802</v>
       </c>
       <c r="E19">
-        <v>1.034519337551482</v>
+        <v>0.995833036097424</v>
       </c>
       <c r="F19">
-        <v>1.041870793926549</v>
+        <v>0.9960110683823</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029358826364427</v>
+        <v>1.037141980887702</v>
       </c>
       <c r="J19">
-        <v>1.031830407004855</v>
+        <v>1.008293071508624</v>
       </c>
       <c r="K19">
-        <v>1.032030111460807</v>
+        <v>1.016711429356287</v>
       </c>
       <c r="L19">
-        <v>1.037834042639858</v>
+        <v>1.009659154549239</v>
       </c>
       <c r="M19">
-        <v>1.045160449755217</v>
+        <v>1.009834097785774</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025343886196973</v>
+        <v>0.9788509043720625</v>
       </c>
       <c r="D20">
-        <v>1.028456425532049</v>
+        <v>1.00180638935615</v>
       </c>
       <c r="E20">
-        <v>1.034203989770542</v>
+        <v>0.994320082517354</v>
       </c>
       <c r="F20">
-        <v>1.04149804977177</v>
+        <v>0.994244930079739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029314611868759</v>
+        <v>1.036786683983179</v>
       </c>
       <c r="J20">
-        <v>1.031612611227063</v>
+        <v>1.007222155801391</v>
       </c>
       <c r="K20">
-        <v>1.031856532537329</v>
+        <v>1.015817549779173</v>
       </c>
       <c r="L20">
-        <v>1.037583816622255</v>
+        <v>1.008463547150007</v>
       </c>
       <c r="M20">
-        <v>1.044852494484191</v>
+        <v>1.008389735983133</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024232617100169</v>
+        <v>0.972999149064642</v>
       </c>
       <c r="D21">
-        <v>1.027679973433924</v>
+        <v>0.9978270506308929</v>
       </c>
       <c r="E21">
-        <v>1.033179862292234</v>
+        <v>0.9893161320433225</v>
       </c>
       <c r="F21">
-        <v>1.04028777518657</v>
+        <v>0.9884032642190552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029168980443765</v>
+        <v>1.035594819603342</v>
       </c>
       <c r="J21">
-        <v>1.030904283379036</v>
+        <v>1.003670808754749</v>
       </c>
       <c r="K21">
-        <v>1.031291353098463</v>
+        <v>1.012849707476238</v>
       </c>
       <c r="L21">
-        <v>1.036770527563872</v>
+        <v>1.004502780490442</v>
       </c>
       <c r="M21">
-        <v>1.043852028663797</v>
+        <v>1.003607722157818</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02353434144357</v>
+        <v>0.9692292320117415</v>
       </c>
       <c r="D22">
-        <v>1.027191864661261</v>
+        <v>0.9952685981430679</v>
       </c>
       <c r="E22">
-        <v>1.032536799641506</v>
+        <v>0.98610133078164</v>
       </c>
       <c r="F22">
-        <v>1.039528021649661</v>
+        <v>0.9846498376842521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0290759729971</v>
+        <v>1.03481639378814</v>
       </c>
       <c r="J22">
-        <v>1.03045873946947</v>
+        <v>1.001382019550737</v>
       </c>
       <c r="K22">
-        <v>1.030935349329697</v>
+        <v>1.010934371359187</v>
       </c>
       <c r="L22">
-        <v>1.03625935283546</v>
+        <v>1.001953244368199</v>
       </c>
       <c r="M22">
-        <v>1.043223556832239</v>
+        <v>1.000531643277997</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023904470286971</v>
+        <v>0.9712366373480585</v>
       </c>
       <c r="D23">
-        <v>1.027450612601855</v>
+        <v>0.9966303986891312</v>
       </c>
       <c r="E23">
-        <v>1.032877618727109</v>
+        <v>0.9878122845922326</v>
       </c>
       <c r="F23">
-        <v>1.039930667926974</v>
+        <v>0.9866475065389816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029125414652312</v>
+        <v>1.035231864796427</v>
       </c>
       <c r="J23">
-        <v>1.030694948507764</v>
+        <v>1.002600817545988</v>
       </c>
       <c r="K23">
-        <v>1.031124135283062</v>
+        <v>1.011954537998877</v>
       </c>
       <c r="L23">
-        <v>1.036530319643754</v>
+        <v>1.00331060052458</v>
       </c>
       <c r="M23">
-        <v>1.04355666824068</v>
+        <v>1.002169135624634</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025362523911122</v>
+        <v>0.9789475383934162</v>
       </c>
       <c r="D24">
-        <v>1.028469444077118</v>
+        <v>1.001872181126441</v>
       </c>
       <c r="E24">
-        <v>1.03422117369248</v>
+        <v>0.9944028593214689</v>
       </c>
       <c r="F24">
-        <v>1.041518360372554</v>
+        <v>0.9943415599440322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029317028900798</v>
+        <v>1.036806185954201</v>
       </c>
       <c r="J24">
-        <v>1.031624483163542</v>
+        <v>1.00728078288502</v>
       </c>
       <c r="K24">
-        <v>1.031865996713903</v>
+        <v>1.015866498742088</v>
       </c>
       <c r="L24">
-        <v>1.03759745438926</v>
+        <v>1.008528985201258</v>
       </c>
       <c r="M24">
-        <v>1.044869276877655</v>
+        <v>1.008468778185338</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027056340554026</v>
+        <v>0.9875294829914851</v>
       </c>
       <c r="D25">
-        <v>1.029652037210649</v>
+        <v>1.007724394632423</v>
       </c>
       <c r="E25">
-        <v>1.035783950882585</v>
+        <v>1.001773102238584</v>
       </c>
       <c r="F25">
-        <v>1.043365962825395</v>
+        <v>1.002945100335039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029533087374768</v>
+        <v>1.038512144122464</v>
       </c>
       <c r="J25">
-        <v>1.032702305041386</v>
+        <v>1.012483943580747</v>
       </c>
       <c r="K25">
-        <v>1.032724013977079</v>
+        <v>1.020203971176332</v>
       </c>
       <c r="L25">
-        <v>1.038836530604861</v>
+        <v>1.014343955295472</v>
       </c>
       <c r="M25">
-        <v>1.046394902748659</v>
+        <v>1.015497868805856</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9941076804963541</v>
+        <v>1.008364277860997</v>
       </c>
       <c r="D2">
-        <v>1.012221474360131</v>
+        <v>1.025759815616595</v>
       </c>
       <c r="E2">
-        <v>1.00744854784961</v>
+        <v>1.01366234551137</v>
       </c>
       <c r="F2">
-        <v>1.009570765753633</v>
+        <v>1.028559564711084</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039780783513007</v>
+        <v>1.045847259605112</v>
       </c>
       <c r="J2">
-        <v>1.01646606957744</v>
+        <v>1.030297660832261</v>
       </c>
       <c r="K2">
-        <v>1.023513130432436</v>
+        <v>1.036871571516988</v>
       </c>
       <c r="L2">
-        <v>1.018805078828953</v>
+        <v>1.024934567797346</v>
       </c>
       <c r="M2">
-        <v>1.020898355660288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.039634856894124</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03994072089666</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037141656138472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.998742100622183</v>
+        <v>1.011797163756878</v>
       </c>
       <c r="D3">
-        <v>1.015394689531714</v>
+        <v>1.02798402825605</v>
       </c>
       <c r="E3">
-        <v>1.01146108787515</v>
+        <v>1.016337306464459</v>
       </c>
       <c r="F3">
-        <v>1.014255916627775</v>
+        <v>1.03115347294609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040651020648819</v>
+        <v>1.046621188103222</v>
       </c>
       <c r="J3">
-        <v>1.01926711608122</v>
+        <v>1.03197131215401</v>
       </c>
       <c r="K3">
-        <v>1.025834310011246</v>
+        <v>1.038270943724991</v>
       </c>
       <c r="L3">
-        <v>1.021949392509923</v>
+        <v>1.02676533029846</v>
       </c>
       <c r="M3">
-        <v>1.024709582768067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.041402672101732</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04133982783327</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038128466774229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00167906570714</v>
+        <v>1.013982080555569</v>
       </c>
       <c r="D4">
-        <v>1.017407467309034</v>
+        <v>1.029403807393246</v>
       </c>
       <c r="E4">
-        <v>1.014010200077688</v>
+        <v>1.018045444870587</v>
       </c>
       <c r="F4">
-        <v>1.017232858323542</v>
+        <v>1.032810906966238</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041191310740253</v>
+        <v>1.047106542686768</v>
       </c>
       <c r="J4">
-        <v>1.021039918115326</v>
+        <v>1.033034761833391</v>
       </c>
       <c r="K4">
-        <v>1.027300242891239</v>
+        <v>1.039159848179612</v>
       </c>
       <c r="L4">
-        <v>1.023942424636004</v>
+        <v>1.027930848550521</v>
       </c>
       <c r="M4">
-        <v>1.027127653523558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.042528826302903</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042231101791423</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038757897412323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00289950568949</v>
+        <v>1.014895089979888</v>
       </c>
       <c r="D5">
-        <v>1.018244234801862</v>
+        <v>1.030000212913595</v>
       </c>
       <c r="E5">
-        <v>1.015070930031039</v>
+        <v>1.018760907242421</v>
       </c>
       <c r="F5">
-        <v>1.018471764766083</v>
+        <v>1.033504211776736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041413090993855</v>
+        <v>1.047309025544395</v>
       </c>
       <c r="J5">
-        <v>1.021776006696737</v>
+        <v>1.033480139372001</v>
       </c>
       <c r="K5">
-        <v>1.027908135693188</v>
+        <v>1.039533686386262</v>
       </c>
       <c r="L5">
-        <v>1.024770675530771</v>
+        <v>1.028418998007047</v>
       </c>
       <c r="M5">
-        <v>1.028133106124383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.042999514261687</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042603618764638</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039029412916253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003103601854526</v>
+        <v>1.015051486344157</v>
       </c>
       <c r="D6">
-        <v>1.018384188516561</v>
+        <v>1.030105053084547</v>
       </c>
       <c r="E6">
-        <v>1.015248402345838</v>
+        <v>1.018883980597903</v>
       </c>
       <c r="F6">
-        <v>1.018679057458386</v>
+        <v>1.033622073223604</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041450017600947</v>
+        <v>1.047345347780056</v>
       </c>
       <c r="J6">
-        <v>1.021899068250744</v>
+        <v>1.03355815835055</v>
       </c>
       <c r="K6">
-        <v>1.028009718577353</v>
+        <v>1.039601140486607</v>
       </c>
       <c r="L6">
-        <v>1.024909187599227</v>
+        <v>1.028503916250114</v>
       </c>
       <c r="M6">
-        <v>1.02830128609463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.043080021695148</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042667334812319</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039085864395182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001695428625429</v>
+        <v>1.014003965395526</v>
       </c>
       <c r="D7">
-        <v>1.017418684811884</v>
+        <v>1.029425113241927</v>
       </c>
       <c r="E7">
-        <v>1.014024415983533</v>
+        <v>1.018063776279713</v>
       </c>
       <c r="F7">
-        <v>1.017249461533324</v>
+        <v>1.032824862283688</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041194295097465</v>
+        <v>1.047116077860212</v>
       </c>
       <c r="J7">
-        <v>1.021049789522495</v>
+        <v>1.033050145240622</v>
       </c>
       <c r="K7">
-        <v>1.027308398224877</v>
+        <v>1.039178027934066</v>
       </c>
       <c r="L7">
-        <v>1.023953529142525</v>
+        <v>1.027946038349401</v>
       </c>
       <c r="M7">
-        <v>1.027141131549266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.042539752051079</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042239748767801</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038790890428337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9956870366967144</v>
+        <v>1.009544184770576</v>
       </c>
       <c r="D8">
-        <v>1.013302444837552</v>
+        <v>1.026532086144993</v>
       </c>
       <c r="E8">
-        <v>1.008814638932739</v>
+        <v>1.014582111822519</v>
       </c>
       <c r="F8">
-        <v>1.011165753942054</v>
+        <v>1.029446453236952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040079671559366</v>
+        <v>1.046120523070022</v>
       </c>
       <c r="J8">
-        <v>1.017421092903821</v>
+        <v>1.030879107066476</v>
       </c>
       <c r="K8">
-        <v>1.024305191194759</v>
+        <v>1.037364267721188</v>
       </c>
       <c r="L8">
-        <v>1.019876519601705</v>
+        <v>1.025568116519702</v>
       </c>
       <c r="M8">
-        <v>1.022196572672935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.040241796228467</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040421072898486</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037512979660434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9846003852471185</v>
+        <v>1.001380278048727</v>
       </c>
       <c r="D9">
-        <v>1.005724979380421</v>
+        <v>1.021259321922723</v>
       </c>
       <c r="E9">
-        <v>0.9992533204474326</v>
+        <v>1.008252441246583</v>
       </c>
       <c r="F9">
-        <v>1.000003661113988</v>
+        <v>1.023319357866119</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037935910698301</v>
+        <v>1.044234824073632</v>
       </c>
       <c r="J9">
-        <v>1.010708914105989</v>
+        <v>1.026884389116091</v>
       </c>
       <c r="K9">
-        <v>1.018725850676707</v>
+        <v>1.0340166471475</v>
       </c>
       <c r="L9">
-        <v>1.012358523633916</v>
+        <v>1.021213032371028</v>
       </c>
       <c r="M9">
-        <v>1.013096678919357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.036045094399195</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037099656731893</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035142802463264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9768353906133135</v>
+        <v>0.9957884310900346</v>
       </c>
       <c r="D10">
-        <v>1.000434725860893</v>
+        <v>1.017684325097089</v>
       </c>
       <c r="E10">
-        <v>0.9925946568402323</v>
+        <v>1.003957395414901</v>
       </c>
       <c r="F10">
-        <v>0.9922307189352331</v>
+        <v>1.019332465134866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036378556257239</v>
+        <v>1.042935749302695</v>
       </c>
       <c r="J10">
-        <v>1.005999206643556</v>
+        <v>1.024170147417473</v>
       </c>
       <c r="K10">
-        <v>1.014796135631696</v>
+        <v>1.031741459549561</v>
       </c>
       <c r="L10">
-        <v>1.00709891680267</v>
+        <v>1.018255563598804</v>
       </c>
       <c r="M10">
-        <v>1.006741681485467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.033361223875736</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035027194594658</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03355094810556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9733750529539053</v>
+        <v>0.9937889689331796</v>
       </c>
       <c r="D11">
-        <v>0.9980823862708881</v>
+        <v>1.016492775004465</v>
       </c>
       <c r="E11">
-        <v>0.9896370657377525</v>
+        <v>1.00249118757754</v>
       </c>
       <c r="F11">
-        <v>0.9887779469788979</v>
+        <v>1.019279440077324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03567200127388</v>
+        <v>1.042679901318958</v>
       </c>
       <c r="J11">
-        <v>1.003898996547335</v>
+        <v>1.023422436404176</v>
       </c>
       <c r="K11">
-        <v>1.013040556812302</v>
+        <v>1.031110222967712</v>
       </c>
       <c r="L11">
-        <v>1.004757094165247</v>
+        <v>1.017366276171691</v>
       </c>
       <c r="M11">
-        <v>1.003914643887198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.03384670832817</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035848937368222</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033137560576471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9720741373149073</v>
+        <v>0.9931928116352275</v>
       </c>
       <c r="D12">
-        <v>0.9971989034387516</v>
+        <v>1.016165424385024</v>
       </c>
       <c r="E12">
-        <v>0.9885266843617636</v>
+        <v>1.00208166549875</v>
       </c>
       <c r="F12">
-        <v>0.9874815864527738</v>
+        <v>1.019835915572149</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035404549515422</v>
+        <v>1.042688130848543</v>
       </c>
       <c r="J12">
-        <v>1.003109265374472</v>
+        <v>1.023288084305536</v>
       </c>
       <c r="K12">
-        <v>1.012379965517855</v>
+        <v>1.030989338042793</v>
       </c>
       <c r="L12">
-        <v>1.003877046253154</v>
+        <v>1.017169092456387</v>
       </c>
       <c r="M12">
-        <v>1.002852614637819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.034592708464578</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036766086850502</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033052090631274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9723539082623354</v>
+        <v>0.9936475942604712</v>
       </c>
       <c r="D13">
-        <v>0.9973888610709267</v>
+        <v>1.016495338525258</v>
       </c>
       <c r="E13">
-        <v>0.988765409548215</v>
+        <v>1.002465649619305</v>
       </c>
       <c r="F13">
-        <v>0.9877602997958304</v>
+        <v>1.020923649483578</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035462148154987</v>
+        <v>1.042912050875064</v>
       </c>
       <c r="J13">
-        <v>1.003279108684144</v>
+        <v>1.02362963955909</v>
       </c>
       <c r="K13">
-        <v>1.012522055242584</v>
+        <v>1.031270196693054</v>
       </c>
       <c r="L13">
-        <v>1.004066289406105</v>
+        <v>1.017501887935856</v>
       </c>
       <c r="M13">
-        <v>1.003080974537266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.035617945565586</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037853791057481</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033248169063427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9732678421487049</v>
+        <v>0.9944393926563724</v>
       </c>
       <c r="D14">
-        <v>0.9980095583503674</v>
+        <v>1.017023159257896</v>
       </c>
       <c r="E14">
-        <v>0.9895455257959814</v>
+        <v>1.003091645799794</v>
       </c>
       <c r="F14">
-        <v>0.9886710765482019</v>
+        <v>1.021913163743688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035649996750235</v>
+        <v>1.043164185299734</v>
       </c>
       <c r="J14">
-        <v>1.003833916220141</v>
+        <v>1.024081330695713</v>
       </c>
       <c r="K14">
-        <v>1.012986127642302</v>
+        <v>1.031647586614783</v>
       </c>
       <c r="L14">
-        <v>1.00468456014815</v>
+        <v>1.017972385443133</v>
       </c>
       <c r="M14">
-        <v>1.003827103634538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.036449776003204</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038684823279098</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033516425292229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9738288539973194</v>
+        <v>0.9948685214391068</v>
       </c>
       <c r="D15">
-        <v>0.9983906882214163</v>
+        <v>1.017303192971097</v>
       </c>
       <c r="E15">
-        <v>0.9900245978800014</v>
+        <v>1.003424059742544</v>
       </c>
       <c r="F15">
-        <v>0.9892303772673333</v>
+        <v>1.022302372117337</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035765067969621</v>
+        <v>1.043279255676918</v>
       </c>
       <c r="J15">
-        <v>1.00417446201184</v>
+        <v>1.024303953646402</v>
       </c>
       <c r="K15">
-        <v>1.013270920968022</v>
+        <v>1.031835853342484</v>
       </c>
       <c r="L15">
-        <v>1.005064130649046</v>
+        <v>1.018210120641621</v>
       </c>
       <c r="M15">
-        <v>1.004285216367129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.036745945529996</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038956478932597</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033655421204953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.977062904001707</v>
+        <v>0.99714051119696</v>
       </c>
       <c r="D16">
-        <v>1.000589505924172</v>
+        <v>1.018748018261819</v>
       </c>
       <c r="E16">
-        <v>0.9927893232093741</v>
+        <v>1.005156352017039</v>
       </c>
       <c r="F16">
-        <v>0.9924579697105996</v>
+        <v>1.023827283503898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036424755407102</v>
+        <v>1.043797383798263</v>
       </c>
       <c r="J16">
-        <v>1.006137268421292</v>
+        <v>1.025390891818476</v>
       </c>
       <c r="K16">
-        <v>1.014911478336431</v>
+        <v>1.03275111698742</v>
       </c>
       <c r="L16">
-        <v>1.007252936052244</v>
+        <v>1.019396720868266</v>
       </c>
       <c r="M16">
-        <v>1.006927663686221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.037743800266691</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039706434914952</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034305722981075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9790646999984894</v>
+        <v>0.9984742080626587</v>
       </c>
       <c r="D17">
-        <v>1.001951952082185</v>
+        <v>1.019585007822399</v>
       </c>
       <c r="E17">
-        <v>0.9945032263640978</v>
+        <v>1.006163401801818</v>
       </c>
       <c r="F17">
-        <v>0.9944587237089882</v>
+        <v>1.024477388790591</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036829822448931</v>
+        <v>1.044063040002231</v>
       </c>
       <c r="J17">
-        <v>1.007351862936505</v>
+        <v>1.025991146739192</v>
       </c>
       <c r="K17">
-        <v>1.015925842849886</v>
+        <v>1.033258139255489</v>
       </c>
       <c r="L17">
-        <v>1.008608325285512</v>
+        <v>1.020064220437233</v>
       </c>
       <c r="M17">
-        <v>1.008564614203862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.038069433517972</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039834674834281</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034666802602408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802229154357442</v>
+        <v>0.9991040180702591</v>
       </c>
       <c r="D18">
-        <v>1.002740730729324</v>
+        <v>1.019952397922777</v>
       </c>
       <c r="E18">
-        <v>0.9954957886702339</v>
+        <v>1.006617762944319</v>
       </c>
       <c r="F18">
-        <v>0.9956173867897591</v>
+        <v>1.024325425054373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037062995251725</v>
+        <v>1.044116431990223</v>
       </c>
       <c r="J18">
-        <v>1.008054475492681</v>
+        <v>1.026200917309424</v>
       </c>
       <c r="K18">
-        <v>1.016512322698507</v>
+        <v>1.033435390841415</v>
       </c>
       <c r="L18">
-        <v>1.009392726261553</v>
+        <v>1.020323234613284</v>
       </c>
       <c r="M18">
-        <v>1.009512201104032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.03773707703891</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039333958729571</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034780464969695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9806162680078122</v>
+        <v>0.999091365041785</v>
       </c>
       <c r="D19">
-        <v>1.003008694363802</v>
+        <v>1.019899348928551</v>
       </c>
       <c r="E19">
-        <v>0.995833036097424</v>
+        <v>1.006567744527067</v>
       </c>
       <c r="F19">
-        <v>0.9960110683823</v>
+        <v>1.02339510900709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037141980887702</v>
+        <v>1.04397697024512</v>
       </c>
       <c r="J19">
-        <v>1.008293071508624</v>
+        <v>1.026053915242836</v>
       </c>
       <c r="K19">
-        <v>1.016711429356287</v>
+        <v>1.0333204615307</v>
       </c>
       <c r="L19">
-        <v>1.009659154549239</v>
+        <v>1.020210124618183</v>
       </c>
       <c r="M19">
-        <v>1.009834097785774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.036759426527712</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038234810150998</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034705614406911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9788509043720625</v>
+        <v>0.9972621903300134</v>
       </c>
       <c r="D20">
-        <v>1.00180638935615</v>
+        <v>1.018642392664091</v>
       </c>
       <c r="E20">
-        <v>0.994320082517354</v>
+        <v>1.005090756283832</v>
       </c>
       <c r="F20">
-        <v>0.994244930079739</v>
+        <v>1.020382729513284</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036786683983179</v>
+        <v>1.043293374637412</v>
       </c>
       <c r="J20">
-        <v>1.007222155801391</v>
+        <v>1.024899059428538</v>
       </c>
       <c r="K20">
-        <v>1.015817549779173</v>
+        <v>1.032365171807607</v>
       </c>
       <c r="L20">
-        <v>1.008463547150007</v>
+        <v>1.019044677652628</v>
       </c>
       <c r="M20">
-        <v>1.008389735983133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.034076397936285</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035582588682337</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034034113464033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972999149064642</v>
+        <v>0.9929772624241288</v>
       </c>
       <c r="D21">
-        <v>0.9978270506308929</v>
+        <v>1.01589371403609</v>
       </c>
       <c r="E21">
-        <v>0.9893161320433225</v>
+        <v>1.001799282770705</v>
       </c>
       <c r="F21">
-        <v>0.9884032642190552</v>
+        <v>1.017074727439878</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035594819603342</v>
+        <v>1.042242064841935</v>
       </c>
       <c r="J21">
-        <v>1.003670808754749</v>
+        <v>1.022771564348151</v>
       </c>
       <c r="K21">
-        <v>1.012849707476238</v>
+        <v>1.030580104266332</v>
       </c>
       <c r="L21">
-        <v>1.004502780490442</v>
+        <v>1.016746647180689</v>
       </c>
       <c r="M21">
-        <v>1.003607722157818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.0317396770565</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033692183211474</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032775231007599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9692292320117415</v>
+        <v>0.9902528721786004</v>
       </c>
       <c r="D22">
-        <v>0.9952685981430679</v>
+        <v>1.014149941976786</v>
       </c>
       <c r="E22">
-        <v>0.98610133078164</v>
+        <v>0.9997163466368432</v>
       </c>
       <c r="F22">
-        <v>0.9846498376842521</v>
+        <v>1.015069517894681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03481639378814</v>
+        <v>1.041575389933771</v>
       </c>
       <c r="J22">
-        <v>1.001382019550737</v>
+        <v>1.021426918964847</v>
       </c>
       <c r="K22">
-        <v>1.010934371359187</v>
+        <v>1.029446202576358</v>
       </c>
       <c r="L22">
-        <v>1.001953244368199</v>
+        <v>1.01529342485081</v>
       </c>
       <c r="M22">
-        <v>1.000531643277997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.030348241333488</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032590943734725</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031959964761692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1546,105 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9712366373480585</v>
+        <v>0.9916928280263798</v>
       </c>
       <c r="D23">
-        <v>0.9966303986891312</v>
+        <v>1.015064833079386</v>
       </c>
       <c r="E23">
-        <v>0.9878122845922326</v>
+        <v>1.000815207236099</v>
       </c>
       <c r="F23">
-        <v>0.9866475065389816</v>
+        <v>1.016130790359153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035231864796427</v>
+        <v>1.041924343270628</v>
       </c>
       <c r="J23">
-        <v>1.002600817545988</v>
+        <v>1.022133497727134</v>
       </c>
       <c r="K23">
-        <v>1.011954537998877</v>
+        <v>1.030037604648752</v>
       </c>
       <c r="L23">
-        <v>1.00331060052458</v>
+        <v>1.016058094494523</v>
       </c>
       <c r="M23">
-        <v>1.002169135624634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.031083752840516</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033173058016668</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032368451333284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9789475383934162</v>
+        <v>0.997272284283976</v>
       </c>
       <c r="D24">
-        <v>1.001872181126441</v>
+        <v>1.018631744077757</v>
       </c>
       <c r="E24">
-        <v>0.9944028593214689</v>
+        <v>1.005090653227148</v>
       </c>
       <c r="F24">
-        <v>0.9943415599440322</v>
+        <v>1.020257690371157</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036806185954201</v>
+        <v>1.043268509244551</v>
       </c>
       <c r="J24">
-        <v>1.00728078288502</v>
+        <v>1.024875741221883</v>
       </c>
       <c r="K24">
-        <v>1.015866498742088</v>
+        <v>1.032339379333771</v>
       </c>
       <c r="L24">
-        <v>1.008528985201258</v>
+        <v>1.01902895719624</v>
       </c>
       <c r="M24">
-        <v>1.008468778185338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.033938158539527</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035432148392629</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033988404036455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9875294829914851</v>
+        <v>1.003542254104116</v>
       </c>
       <c r="D25">
-        <v>1.007724394632423</v>
+        <v>1.022662272726105</v>
       </c>
       <c r="E25">
-        <v>1.001773102238584</v>
+        <v>1.009925192216283</v>
       </c>
       <c r="F25">
-        <v>1.002945100335039</v>
+        <v>1.024931385857268</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038512144122464</v>
+        <v>1.044747759641376</v>
       </c>
       <c r="J25">
-        <v>1.012483943580747</v>
+        <v>1.02795099251174</v>
       </c>
       <c r="K25">
-        <v>1.020203971176332</v>
+        <v>1.034918684908285</v>
       </c>
       <c r="L25">
-        <v>1.014343955295472</v>
+        <v>1.022371361701187</v>
       </c>
       <c r="M25">
-        <v>1.015497868805856</v>
+        <v>1.037154620683529</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037977776021666</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035809245489693</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008364277860997</v>
+        <v>1.007791204177801</v>
       </c>
       <c r="D2">
-        <v>1.025759815616595</v>
+        <v>1.024865410116531</v>
       </c>
       <c r="E2">
-        <v>1.01366234551137</v>
+        <v>1.01317615887734</v>
       </c>
       <c r="F2">
-        <v>1.028559564711084</v>
+        <v>1.028283827785202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045847259605112</v>
+        <v>1.045451274181695</v>
       </c>
       <c r="J2">
-        <v>1.030297660832261</v>
+        <v>1.029741352947355</v>
       </c>
       <c r="K2">
-        <v>1.036871571516988</v>
+        <v>1.035988867297017</v>
       </c>
       <c r="L2">
-        <v>1.024934567797346</v>
+        <v>1.024454930849809</v>
       </c>
       <c r="M2">
-        <v>1.039634856894124</v>
+        <v>1.039362700109349</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03994072089666</v>
+        <v>1.039725326849542</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037141656138472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036526297007865</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021633105929487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011797163756878</v>
+        <v>1.01113128862072</v>
       </c>
       <c r="D3">
-        <v>1.02798402825605</v>
+        <v>1.026950593322089</v>
       </c>
       <c r="E3">
-        <v>1.016337306464459</v>
+        <v>1.015768884097665</v>
       </c>
       <c r="F3">
-        <v>1.03115347294609</v>
+        <v>1.030832964516671</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046621188103222</v>
+        <v>1.046158851502954</v>
       </c>
       <c r="J3">
-        <v>1.03197131215401</v>
+        <v>1.031323035492897</v>
       </c>
       <c r="K3">
-        <v>1.038270943724991</v>
+        <v>1.037249869066571</v>
       </c>
       <c r="L3">
-        <v>1.02676533029846</v>
+        <v>1.026203897803253</v>
       </c>
       <c r="M3">
-        <v>1.041402672101732</v>
+        <v>1.041085964652975</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04133982783327</v>
+        <v>1.041089175370332</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038128466774229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037414991410802</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02187344817415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013982080555569</v>
+        <v>1.013257715145688</v>
       </c>
       <c r="D4">
-        <v>1.029403807393246</v>
+        <v>1.028282258493994</v>
       </c>
       <c r="E4">
-        <v>1.018045444870587</v>
+        <v>1.017425148659742</v>
       </c>
       <c r="F4">
-        <v>1.032810906966238</v>
+        <v>1.032462191702481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047106542686768</v>
+        <v>1.046602149894232</v>
       </c>
       <c r="J4">
-        <v>1.033034761833391</v>
+        <v>1.032328261413656</v>
       </c>
       <c r="K4">
-        <v>1.039159848179612</v>
+        <v>1.038050916174297</v>
       </c>
       <c r="L4">
-        <v>1.027930848550521</v>
+        <v>1.027317719778058</v>
       </c>
       <c r="M4">
-        <v>1.042528826302903</v>
+        <v>1.042183998531505</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042231101791423</v>
+        <v>1.041958194332401</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038757897412323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037982382146142</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022023803203309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014895089979888</v>
+        <v>1.014146430814848</v>
       </c>
       <c r="D5">
-        <v>1.030000212913595</v>
+        <v>1.028841983000224</v>
       </c>
       <c r="E5">
-        <v>1.018760907242421</v>
+        <v>1.018119053286991</v>
       </c>
       <c r="F5">
-        <v>1.033504211776736</v>
+        <v>1.033143783732203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047309025544395</v>
+        <v>1.046787112215465</v>
       </c>
       <c r="J5">
-        <v>1.033480139372001</v>
+        <v>1.032749399292085</v>
       </c>
       <c r="K5">
-        <v>1.039533686386262</v>
+        <v>1.038388143927744</v>
       </c>
       <c r="L5">
-        <v>1.028418998007047</v>
+        <v>1.027784362972757</v>
       </c>
       <c r="M5">
-        <v>1.042999514261687</v>
+        <v>1.042642997900796</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042603618764638</v>
+        <v>1.042321460734217</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039029412916253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038228723614886</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022087015525191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015051486344157</v>
+        <v>1.01429869209175</v>
       </c>
       <c r="D6">
-        <v>1.030105053084547</v>
+        <v>1.028940607034206</v>
       </c>
       <c r="E6">
-        <v>1.018883980597903</v>
+        <v>1.01823845176393</v>
       </c>
       <c r="F6">
-        <v>1.033622073223604</v>
+        <v>1.033259651552114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047345347780056</v>
+        <v>1.046820450025641</v>
       </c>
       <c r="J6">
-        <v>1.03355815835055</v>
+        <v>1.032823290600738</v>
       </c>
       <c r="K6">
-        <v>1.039601140486607</v>
+        <v>1.038449392332824</v>
       </c>
       <c r="L6">
-        <v>1.028503916250114</v>
+        <v>1.02786561439819</v>
       </c>
       <c r="M6">
-        <v>1.043080021695148</v>
+        <v>1.042721515447892</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042667334812319</v>
+        <v>1.042383601949122</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039085864395182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038281657741812</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022099046142771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014003965395526</v>
+        <v>1.013279058850834</v>
       </c>
       <c r="D7">
-        <v>1.029425113241927</v>
+        <v>1.028302844422361</v>
       </c>
       <c r="E7">
-        <v>1.018063776279713</v>
+        <v>1.017442985333066</v>
       </c>
       <c r="F7">
-        <v>1.032824862283688</v>
+        <v>1.032475885675895</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047116077860212</v>
+        <v>1.046611297427272</v>
       </c>
       <c r="J7">
-        <v>1.033050145240622</v>
+        <v>1.032343109485482</v>
       </c>
       <c r="K7">
-        <v>1.039178027934066</v>
+        <v>1.038068379263399</v>
       </c>
       <c r="L7">
-        <v>1.027946038349401</v>
+        <v>1.027332417843228</v>
       </c>
       <c r="M7">
-        <v>1.042539752051079</v>
+        <v>1.042194664424719</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042239748767801</v>
+        <v>1.041966635654671</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038790890428337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038016871480031</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022028648870407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009544184770576</v>
+        <v>1.008939104209114</v>
       </c>
       <c r="D8">
-        <v>1.026532086144993</v>
+        <v>1.02558998023523</v>
       </c>
       <c r="E8">
-        <v>1.014582111822519</v>
+        <v>1.014067550725584</v>
       </c>
       <c r="F8">
-        <v>1.029446453236952</v>
+        <v>1.029155271954455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046120523070022</v>
+        <v>1.045701708117566</v>
       </c>
       <c r="J8">
-        <v>1.030879107066476</v>
+        <v>1.030291142016958</v>
       </c>
       <c r="K8">
-        <v>1.037364267721188</v>
+        <v>1.036434126267793</v>
       </c>
       <c r="L8">
-        <v>1.025568116519702</v>
+        <v>1.025060280972278</v>
       </c>
       <c r="M8">
-        <v>1.040241796228467</v>
+        <v>1.039954283870912</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040421072898486</v>
+        <v>1.040193526083769</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037512979660434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036866350881763</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021720376581205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001380278048727</v>
+        <v>1.000999435457727</v>
       </c>
       <c r="D9">
-        <v>1.021259321922723</v>
+        <v>1.020649920569957</v>
       </c>
       <c r="E9">
-        <v>1.008252441246583</v>
+        <v>1.007936243745123</v>
       </c>
       <c r="F9">
-        <v>1.023319357866119</v>
+        <v>1.023136413549061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044234824073632</v>
+        <v>1.043974791448488</v>
       </c>
       <c r="J9">
-        <v>1.026884389116091</v>
+        <v>1.026516950379436</v>
       </c>
       <c r="K9">
-        <v>1.0340166471475</v>
+        <v>1.033416621582206</v>
       </c>
       <c r="L9">
-        <v>1.021213032371028</v>
+        <v>1.02090185994623</v>
       </c>
       <c r="M9">
-        <v>1.036045094399195</v>
+        <v>1.035864948794069</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037099656731893</v>
+        <v>1.036957082872794</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035142802463264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034729306807732</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021130475885471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9957884310900346</v>
+        <v>0.9955628408250272</v>
       </c>
       <c r="D10">
-        <v>1.017684325097089</v>
+        <v>1.017302774557886</v>
       </c>
       <c r="E10">
-        <v>1.003957395414901</v>
+        <v>1.003777873125822</v>
       </c>
       <c r="F10">
-        <v>1.019332465134866</v>
+        <v>1.019224544797374</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042935749302695</v>
+        <v>1.042784025075424</v>
       </c>
       <c r="J10">
-        <v>1.024170147417473</v>
+        <v>1.023953618148888</v>
       </c>
       <c r="K10">
-        <v>1.031741459549561</v>
+        <v>1.031366495045477</v>
       </c>
       <c r="L10">
-        <v>1.018255563598804</v>
+        <v>1.018079250288038</v>
       </c>
       <c r="M10">
-        <v>1.033361223875736</v>
+        <v>1.033255157952287</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035027194594658</v>
+        <v>1.034943255156743</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03355094810556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033298268108157</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020722706954768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9937889689331796</v>
+        <v>0.9936022388191921</v>
       </c>
       <c r="D11">
-        <v>1.016492775004465</v>
+        <v>1.016174066780725</v>
       </c>
       <c r="E11">
-        <v>1.00249118757754</v>
+        <v>1.002344109926164</v>
       </c>
       <c r="F11">
-        <v>1.019279440077324</v>
+        <v>1.019190625320793</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042679901318958</v>
+        <v>1.042554989954502</v>
       </c>
       <c r="J11">
-        <v>1.023422436404176</v>
+        <v>1.023243615630038</v>
       </c>
       <c r="K11">
-        <v>1.031110222967712</v>
+        <v>1.030797276555102</v>
       </c>
       <c r="L11">
-        <v>1.017366276171691</v>
+        <v>1.017221954748778</v>
       </c>
       <c r="M11">
-        <v>1.03384670832817</v>
+        <v>1.033759487366467</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035848937368222</v>
+        <v>1.035779946620202</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033137560576471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032931955314874</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020643344219651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9931928116352275</v>
+        <v>0.9930096146133603</v>
       </c>
       <c r="D12">
-        <v>1.016165424385024</v>
+        <v>1.015856791728318</v>
       </c>
       <c r="E12">
-        <v>1.00208166549875</v>
+        <v>1.001936299636469</v>
       </c>
       <c r="F12">
-        <v>1.019835915572149</v>
+        <v>1.019749027655314</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042688130848543</v>
+        <v>1.042565569614835</v>
       </c>
       <c r="J12">
-        <v>1.023288084305536</v>
+        <v>1.023112795115829</v>
       </c>
       <c r="K12">
-        <v>1.030989338042793</v>
+        <v>1.030686378025742</v>
       </c>
       <c r="L12">
-        <v>1.017169092456387</v>
+        <v>1.017026496985115</v>
       </c>
       <c r="M12">
-        <v>1.034592708464578</v>
+        <v>1.034507402165383</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036766086850502</v>
+        <v>1.036698633520152</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033052090631274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032853547714487</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020645775278735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9936475942604712</v>
+        <v>0.9934405674394932</v>
       </c>
       <c r="D13">
-        <v>1.016495338525258</v>
+        <v>1.016156391475263</v>
       </c>
       <c r="E13">
-        <v>1.002465649619305</v>
+        <v>1.002298144979828</v>
       </c>
       <c r="F13">
-        <v>1.020923649483578</v>
+        <v>1.020825538336863</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042912050875064</v>
+        <v>1.042772964759082</v>
       </c>
       <c r="J13">
-        <v>1.02362963955909</v>
+        <v>1.023431505128224</v>
       </c>
       <c r="K13">
-        <v>1.031270196693054</v>
+        <v>1.03093745361106</v>
       </c>
       <c r="L13">
-        <v>1.017501887935856</v>
+        <v>1.017337561791413</v>
       </c>
       <c r="M13">
-        <v>1.035617945565586</v>
+        <v>1.035521609461166</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037853791057481</v>
+        <v>1.037777635431039</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033248169063427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033028321540731</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020717463547867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9944393926563724</v>
+        <v>0.9942036275415375</v>
       </c>
       <c r="D14">
-        <v>1.017023159257896</v>
+        <v>1.016645063662605</v>
       </c>
       <c r="E14">
-        <v>1.003091645799794</v>
+        <v>1.00289814623926</v>
       </c>
       <c r="F14">
-        <v>1.021913163743688</v>
+        <v>1.021801433125015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043164185299734</v>
+        <v>1.043005186195261</v>
       </c>
       <c r="J14">
-        <v>1.024081330695713</v>
+        <v>1.023855548267369</v>
       </c>
       <c r="K14">
-        <v>1.031647586614783</v>
+        <v>1.031276326642414</v>
       </c>
       <c r="L14">
-        <v>1.017972385443133</v>
+        <v>1.01778251135803</v>
       </c>
       <c r="M14">
-        <v>1.036449776003204</v>
+        <v>1.036340039669466</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038684823279098</v>
+        <v>1.038598086217593</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033516425292229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033269479132585</v>
+      </c>
+      <c r="S14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.020798796387314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9948685214391068</v>
+        <v>0.994619461421699</v>
       </c>
       <c r="D15">
-        <v>1.017303192971097</v>
+        <v>1.016906266348787</v>
       </c>
       <c r="E15">
-        <v>1.003424059742544</v>
+        <v>1.003218731248497</v>
       </c>
       <c r="F15">
-        <v>1.022302372117337</v>
+        <v>1.022184316424668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043279255676918</v>
+        <v>1.043111045388844</v>
       </c>
       <c r="J15">
-        <v>1.024303953646402</v>
+        <v>1.024065347676129</v>
       </c>
       <c r="K15">
-        <v>1.031835853342484</v>
+        <v>1.031446048843653</v>
       </c>
       <c r="L15">
-        <v>1.018210120641621</v>
+        <v>1.018008609623392</v>
       </c>
       <c r="M15">
-        <v>1.036745945529996</v>
+        <v>1.036629980595362</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038956478932597</v>
+        <v>1.038864821113967</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033655421204953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033395933910748</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020836136364518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99714051119696</v>
+        <v>0.9968303941000147</v>
       </c>
       <c r="D16">
-        <v>1.018748018261819</v>
+        <v>1.01826059127595</v>
       </c>
       <c r="E16">
-        <v>1.005156352017039</v>
+        <v>1.004897708053126</v>
       </c>
       <c r="F16">
-        <v>1.023827283503898</v>
+        <v>1.023680023951264</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043797383798263</v>
+        <v>1.043586812014777</v>
       </c>
       <c r="J16">
-        <v>1.025390891818476</v>
+        <v>1.025093144699189</v>
       </c>
       <c r="K16">
-        <v>1.03275111698742</v>
+        <v>1.032272057475076</v>
       </c>
       <c r="L16">
-        <v>1.019396720868266</v>
+        <v>1.019142672820032</v>
       </c>
       <c r="M16">
-        <v>1.037743800266691</v>
+        <v>1.037599035314898</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039706434914952</v>
+        <v>1.039592010520444</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034305722981075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033983427515677</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020999856885052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9984742080626587</v>
+        <v>0.9981321769526291</v>
       </c>
       <c r="D17">
-        <v>1.019585007822399</v>
+        <v>1.019048460247067</v>
       </c>
       <c r="E17">
-        <v>1.006163401801818</v>
+        <v>1.005877314287553</v>
       </c>
       <c r="F17">
-        <v>1.024477388790591</v>
+        <v>1.024314738531522</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044063040002231</v>
+        <v>1.043830252406686</v>
       </c>
       <c r="J17">
-        <v>1.025991146739192</v>
+        <v>1.025662322557303</v>
       </c>
       <c r="K17">
-        <v>1.033258139255489</v>
+        <v>1.032730545503222</v>
       </c>
       <c r="L17">
-        <v>1.020064220437233</v>
+        <v>1.019783071722022</v>
       </c>
       <c r="M17">
-        <v>1.038069433517972</v>
+        <v>1.03790946302284</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039834674834281</v>
+        <v>1.039708219155753</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034666802602408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034310438632371</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021082805696214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9991040180702591</v>
+        <v>0.9987532573935758</v>
       </c>
       <c r="D18">
-        <v>1.019952397922777</v>
+        <v>1.019399386995028</v>
       </c>
       <c r="E18">
-        <v>1.006617762944319</v>
+        <v>1.006324969791933</v>
       </c>
       <c r="F18">
-        <v>1.024325425054373</v>
+        <v>1.024158313768678</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044116431990223</v>
+        <v>1.043877565245144</v>
       </c>
       <c r="J18">
-        <v>1.026200917309424</v>
+        <v>1.025863448045608</v>
       </c>
       <c r="K18">
-        <v>1.033435390841415</v>
+        <v>1.032891457718961</v>
       </c>
       <c r="L18">
-        <v>1.020323234613284</v>
+        <v>1.020035411900516</v>
       </c>
       <c r="M18">
-        <v>1.03773707703891</v>
+        <v>1.037572677603978</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039333958729571</v>
+        <v>1.039203974878708</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034780464969695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034411410002859</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021097251697153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.999091365041785</v>
+        <v>0.9987528815411261</v>
       </c>
       <c r="D19">
-        <v>1.019899348928551</v>
+        <v>1.019359950981304</v>
       </c>
       <c r="E19">
-        <v>1.006567744527067</v>
+        <v>1.006286951433926</v>
       </c>
       <c r="F19">
-        <v>1.02339510900709</v>
+        <v>1.023233457078779</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04397697024512</v>
+        <v>1.043746677782635</v>
       </c>
       <c r="J19">
-        <v>1.026053915242836</v>
+        <v>1.025728183135762</v>
       </c>
       <c r="K19">
-        <v>1.0333204615307</v>
+        <v>1.03278987168551</v>
       </c>
       <c r="L19">
-        <v>1.020210124618183</v>
+        <v>1.019934073241775</v>
       </c>
       <c r="M19">
-        <v>1.036759426527712</v>
+        <v>1.03660038994701</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038234810150998</v>
+        <v>1.0381090252624</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034705614406911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034346619858049</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021053345166265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9972621903300134</v>
+        <v>0.9969951098944519</v>
       </c>
       <c r="D20">
-        <v>1.018642392664091</v>
+        <v>1.018200640412149</v>
       </c>
       <c r="E20">
-        <v>1.005090756283832</v>
+        <v>1.00487467966191</v>
       </c>
       <c r="F20">
-        <v>1.020382729513284</v>
+        <v>1.020254768663663</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043293374637412</v>
+        <v>1.043112839354435</v>
       </c>
       <c r="J20">
-        <v>1.024899059428538</v>
+        <v>1.024642358465319</v>
       </c>
       <c r="K20">
-        <v>1.032365171807607</v>
+        <v>1.031930829187939</v>
       </c>
       <c r="L20">
-        <v>1.019044677652628</v>
+        <v>1.018832351873528</v>
       </c>
       <c r="M20">
-        <v>1.034076397936285</v>
+        <v>1.033950573137258</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035582588682337</v>
+        <v>1.035483011072606</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034034113464033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033743562044925</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02083975041903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9929772624241288</v>
+        <v>0.9928338245995244</v>
       </c>
       <c r="D21">
-        <v>1.01589371403609</v>
+        <v>1.015630940299295</v>
       </c>
       <c r="E21">
-        <v>1.001799282770705</v>
+        <v>1.001692121247685</v>
       </c>
       <c r="F21">
-        <v>1.017074727439878</v>
+        <v>1.017006426417551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042242064841935</v>
+        <v>1.04214711182918</v>
       </c>
       <c r="J21">
-        <v>1.022771564348151</v>
+        <v>1.022634246483956</v>
       </c>
       <c r="K21">
-        <v>1.030580104266332</v>
+        <v>1.030322109858716</v>
       </c>
       <c r="L21">
-        <v>1.016746647180689</v>
+        <v>1.016641506630893</v>
       </c>
       <c r="M21">
-        <v>1.0317396770565</v>
+        <v>1.031672614235047</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033692183211474</v>
+        <v>1.033639106975141</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032775231007599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032609698155168</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020508196492427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9902528721786004</v>
+        <v>0.9901881263293416</v>
       </c>
       <c r="D22">
-        <v>1.014149941976786</v>
+        <v>1.014000359933448</v>
       </c>
       <c r="E22">
-        <v>0.9997163466368432</v>
+        <v>0.9996782821142725</v>
       </c>
       <c r="F22">
-        <v>1.015069517894681</v>
+        <v>1.015039217635532</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041575389933771</v>
+        <v>1.041534462676539</v>
       </c>
       <c r="J22">
-        <v>1.021426918964847</v>
+        <v>1.021365095971295</v>
       </c>
       <c r="K22">
-        <v>1.029446202576358</v>
+        <v>1.029299477136254</v>
       </c>
       <c r="L22">
-        <v>1.01529342485081</v>
+        <v>1.015256114994019</v>
       </c>
       <c r="M22">
-        <v>1.030348241333488</v>
+        <v>1.030318518265998</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032590943734725</v>
+        <v>1.032567419657397</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031959964761692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031871801495229</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020295634035595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,105 +1741,123 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9916928280263798</v>
+        <v>0.9915864895932081</v>
       </c>
       <c r="D23">
-        <v>1.015064833079386</v>
+        <v>1.014855351502119</v>
       </c>
       <c r="E23">
-        <v>1.000815207236099</v>
+        <v>1.000740665009477</v>
       </c>
       <c r="F23">
-        <v>1.016130790359153</v>
+        <v>1.016080405672655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041924343270628</v>
+        <v>1.041854905503487</v>
       </c>
       <c r="J23">
-        <v>1.022133497727134</v>
+        <v>1.022031819348296</v>
       </c>
       <c r="K23">
-        <v>1.030037604648752</v>
+        <v>1.029832022330013</v>
       </c>
       <c r="L23">
-        <v>1.016058094494523</v>
+        <v>1.015984991788461</v>
       </c>
       <c r="M23">
-        <v>1.031083752840516</v>
+        <v>1.031034303251211</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033173058016668</v>
+        <v>1.033133921577944</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032368451333284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032237726238269</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020405286090206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.997272284283976</v>
+        <v>0.997006643179841</v>
       </c>
       <c r="D24">
-        <v>1.018631744077757</v>
+        <v>1.01819132880805</v>
       </c>
       <c r="E24">
-        <v>1.005090653227148</v>
+        <v>1.004876022810813</v>
       </c>
       <c r="F24">
-        <v>1.020257690371157</v>
+        <v>1.020130374859221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043268509244551</v>
+        <v>1.043088975127825</v>
       </c>
       <c r="J24">
-        <v>1.024875741221883</v>
+        <v>1.024620408826518</v>
       </c>
       <c r="K24">
-        <v>1.032339379333771</v>
+        <v>1.031906341983018</v>
       </c>
       <c r="L24">
-        <v>1.01902895719624</v>
+        <v>1.018818047715174</v>
       </c>
       <c r="M24">
-        <v>1.033938158539527</v>
+        <v>1.033812966249992</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035432148392629</v>
+        <v>1.035333066379306</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033988404036455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033696095948144</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020829429670664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003542254104116</v>
+        <v>1.003101348896853</v>
       </c>
       <c r="D25">
-        <v>1.022662272726105</v>
+        <v>1.021964517319787</v>
       </c>
       <c r="E25">
-        <v>1.009925192216283</v>
+        <v>1.009555898442295</v>
       </c>
       <c r="F25">
-        <v>1.024931385857268</v>
+        <v>1.02471944186271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044747759641376</v>
+        <v>1.044445468148882</v>
       </c>
       <c r="J25">
-        <v>1.02795099251174</v>
+        <v>1.027524789167421</v>
       </c>
       <c r="K25">
-        <v>1.034918684908285</v>
+        <v>1.034231169186606</v>
       </c>
       <c r="L25">
-        <v>1.022371361701187</v>
+        <v>1.022007660672939</v>
       </c>
       <c r="M25">
-        <v>1.037154620683529</v>
+        <v>1.03694576769069</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037977776021666</v>
+        <v>1.037812482280825</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035809245489693</v>
+        <v>1.035336699352625</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021294179795019</v>
       </c>
     </row>
   </sheetData>
